--- a/delta2/lib_patterns/pid-htool.xlsx
+++ b/delta2/lib_patterns/pid-htool.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/harveywargo/Desktop/GithubProjects/h2w-delta/delta2/lib_p/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/harveywargo/Desktop/GithubProjects/h2w-delta/delta2/lib_patterns/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47AE859B-C1BB-8948-9B84-4F7E9EEB5F90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CD68631-650C-5A4E-911B-4DAA142F566A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="40" yWindow="-21100" windowWidth="38360" windowHeight="21100" xr2:uid="{EE8A8287-073B-CF4A-B7DF-49D8A1BAE3DD}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="248">
   <si>
     <t>delta_pid</t>
   </si>
@@ -768,6 +768,18 @@
   </si>
   <si>
     <t>(process_cmdline CONTAINS [ 'Ngrok' AND 'start')</t>
+  </si>
+  <si>
+    <t>t1003</t>
+  </si>
+  <si>
+    <t>t1558</t>
+  </si>
+  <si>
+    <t>t1558.003</t>
+  </si>
+  <si>
+    <t>t1003.001</t>
   </si>
 </sst>
 </file>
@@ -844,6 +856,9 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{ADEC3577-1F36-F84B-85AB-0609B6E8D29F}" name="Table13472" displayName="Table13472" ref="A1:H78" totalsRowShown="0">
   <autoFilter ref="A1:H78" xr:uid="{2ECF150C-73C0-5243-B337-9408B556D9AF}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H78">
+    <sortCondition ref="A1:A78"/>
+  </sortState>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{AB514F3C-8608-DB4C-8E75-9D2E53BD878E}" name="delta_pid"/>
     <tableColumn id="2" xr3:uid="{F2F3F91B-6F6E-C64E-B4E5-39CE72852CBF}" name="delta_did"/>
@@ -1178,8 +1193,8 @@
   <dimension ref="A1:H78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A79" sqref="A79"/>
+      <pane ySplit="1" topLeftCell="A49" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C74" sqref="C74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1220,84 +1235,75 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>108</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="E2" t="s">
-        <v>152</v>
+        <v>43</v>
       </c>
       <c r="F2" t="s">
         <v>5</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>109</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="E3" t="s">
-        <v>152</v>
+        <v>43</v>
       </c>
       <c r="F3" t="s">
         <v>5</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>110</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="E4" t="s">
-        <v>152</v>
+        <v>43</v>
       </c>
       <c r="F4" t="s">
         <v>5</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>43</v>
@@ -1306,18 +1312,18 @@
         <v>5</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B6" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>43</v>
@@ -1326,18 +1332,18 @@
         <v>5</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B7" t="s">
         <v>8</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>43</v>
@@ -1346,18 +1352,18 @@
         <v>5</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>43</v>
@@ -1366,18 +1372,18 @@
         <v>5</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B9" t="s">
         <v>8</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>43</v>
@@ -1386,78 +1392,78 @@
         <v>5</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B10" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F10" t="s">
         <v>5</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B11" t="s">
         <v>8</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F11" t="s">
         <v>5</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B12" t="s">
         <v>8</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F12" t="s">
         <v>5</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B13" t="s">
         <v>8</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>42</v>
@@ -1466,78 +1472,78 @@
         <v>5</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B14" t="s">
         <v>8</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F14" t="s">
         <v>5</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B15" t="s">
         <v>8</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F15" t="s">
         <v>5</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="B16" t="s">
         <v>8</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F16" t="s">
         <v>5</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B17" t="s">
         <v>8</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>43</v>
@@ -1546,78 +1552,78 @@
         <v>5</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B18" t="s">
         <v>8</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F18" t="s">
         <v>5</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B19" t="s">
         <v>8</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F19" t="s">
         <v>5</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B20" t="s">
         <v>8</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F20" t="s">
         <v>5</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B21" t="s">
         <v>8</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>42</v>
@@ -1626,18 +1632,18 @@
         <v>5</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B22" t="s">
         <v>8</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>42</v>
@@ -1646,18 +1652,18 @@
         <v>5</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B23" t="s">
         <v>8</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>59</v>
+        <v>80</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>42</v>
@@ -1666,18 +1672,18 @@
         <v>5</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B24" t="s">
         <v>8</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>42</v>
@@ -1686,18 +1692,18 @@
         <v>5</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B25" t="s">
         <v>8</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>42</v>
@@ -1706,78 +1712,87 @@
         <v>5</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B26" t="s">
         <v>8</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>42</v>
+        <v>70</v>
+      </c>
+      <c r="E26" t="s">
+        <v>71</v>
       </c>
       <c r="F26" t="s">
         <v>5</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="B27" t="s">
         <v>8</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>42</v>
+        <v>70</v>
+      </c>
+      <c r="E27" t="s">
+        <v>71</v>
       </c>
       <c r="F27" t="s">
         <v>5</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="B28" t="s">
         <v>8</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>82</v>
+        <v>59</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>42</v>
+        <v>70</v>
+      </c>
+      <c r="E28" t="s">
+        <v>71</v>
       </c>
       <c r="F28" t="s">
         <v>5</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="B29" t="s">
         <v>8</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>70</v>
@@ -1789,18 +1804,18 @@
         <v>5</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="B30" t="s">
         <v>8</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>70</v>
@@ -1812,18 +1827,18 @@
         <v>5</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B31" t="s">
         <v>8</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>59</v>
+        <v>77</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>70</v>
@@ -1835,18 +1850,18 @@
         <v>5</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B32" t="s">
         <v>8</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>70</v>
@@ -1858,18 +1873,18 @@
         <v>5</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B33" t="s">
         <v>8</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>70</v>
@@ -1881,87 +1896,78 @@
         <v>5</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B34" t="s">
         <v>8</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="E34" t="s">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="F34" t="s">
         <v>5</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B35" t="s">
         <v>8</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="E35" t="s">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="F35" t="s">
         <v>5</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B36" t="s">
         <v>8</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="E36" t="s">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="F36" t="s">
         <v>5</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="B37" t="s">
         <v>8</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>42</v>
@@ -1970,78 +1976,78 @@
         <v>5</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="B38" t="s">
         <v>8</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>42</v>
+        <v>92</v>
       </c>
       <c r="F38" t="s">
         <v>5</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="B39" t="s">
         <v>8</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>42</v>
+        <v>92</v>
       </c>
       <c r="F39" t="s">
         <v>5</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B40" t="s">
         <v>8</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>42</v>
+        <v>92</v>
       </c>
       <c r="F40" t="s">
         <v>5</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="B41" t="s">
         <v>8</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>92</v>
@@ -2050,78 +2056,78 @@
         <v>5</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="B42" t="s">
         <v>8</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>92</v>
+        <v>43</v>
       </c>
       <c r="F42" t="s">
         <v>5</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B43" t="s">
         <v>8</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>92</v>
+        <v>43</v>
       </c>
       <c r="F43" t="s">
         <v>5</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B44" t="s">
         <v>8</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>92</v>
+        <v>43</v>
       </c>
       <c r="F44" t="s">
         <v>5</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B45" t="s">
         <v>8</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>43</v>
@@ -2130,67 +2136,76 @@
         <v>5</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>149</v>
+        <v>10</v>
       </c>
       <c r="B46" t="s">
         <v>8</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>104</v>
+        <v>11</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>43</v>
+        <v>153</v>
+      </c>
+      <c r="E46" t="s">
+        <v>152</v>
       </c>
       <c r="F46" t="s">
         <v>5</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>150</v>
+        <v>14</v>
       </c>
       <c r="B47" t="s">
         <v>8</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>105</v>
+        <v>15</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>43</v>
+        <v>153</v>
+      </c>
+      <c r="E47" t="s">
+        <v>152</v>
       </c>
       <c r="F47" t="s">
         <v>5</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>151</v>
+        <v>18</v>
       </c>
       <c r="B48" t="s">
         <v>8</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>107</v>
+        <v>16</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>43</v>
+        <v>153</v>
+      </c>
+      <c r="E48" t="s">
+        <v>152</v>
       </c>
       <c r="F48" t="s">
         <v>5</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>102</v>
+        <v>17</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="17" x14ac:dyDescent="0.2">
@@ -2257,7 +2272,12 @@
       <c r="C52" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="D52" s="1"/>
+      <c r="D52" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="E52" t="s">
+        <v>246</v>
+      </c>
       <c r="F52" t="s">
         <v>5</v>
       </c>
@@ -2275,7 +2295,9 @@
       <c r="C53" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="D53" s="1"/>
+      <c r="D53" s="1" t="s">
+        <v>244</v>
+      </c>
       <c r="F53" t="s">
         <v>5</v>
       </c>
@@ -2383,7 +2405,12 @@
       <c r="C59" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="D59" s="1"/>
+      <c r="D59" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="E59" t="s">
+        <v>247</v>
+      </c>
       <c r="F59" t="s">
         <v>5</v>
       </c>

--- a/delta2/lib_patterns/pid-htool.xlsx
+++ b/delta2/lib_patterns/pid-htool.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/harveywargo/Desktop/GithubProjects/h2w-delta/delta2/lib_patterns/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CD68631-650C-5A4E-911B-4DAA142F566A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05CBB016-3207-5342-8395-11BD38035E5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40" yWindow="-21100" windowWidth="38360" windowHeight="21100" xr2:uid="{EE8A8287-073B-CF4A-B7DF-49D8A1BAE3DD}"/>
+    <workbookView xWindow="0" yWindow="1040" windowWidth="34560" windowHeight="21100" xr2:uid="{EE8A8287-073B-CF4A-B7DF-49D8A1BAE3DD}"/>
   </bookViews>
   <sheets>
     <sheet name="htool" sheetId="11" r:id="rId1"/>
@@ -1193,8 +1193,8 @@
   <dimension ref="A1:H78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A49" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C74" sqref="C74"/>
+      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/delta2/lib_patterns/pid-htool.xlsx
+++ b/delta2/lib_patterns/pid-htool.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/harveywargo/Desktop/GithubProjects/h2w-delta/delta2/lib_patterns/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05CBB016-3207-5342-8395-11BD38035E5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67182EFE-CA2D-794C-9FDC-E2B8EB047919}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1040" windowWidth="34560" windowHeight="21100" xr2:uid="{EE8A8287-073B-CF4A-B7DF-49D8A1BAE3DD}"/>
+    <workbookView xWindow="0" yWindow="-21100" windowWidth="38400" windowHeight="21100" xr2:uid="{EE8A8287-073B-CF4A-B7DF-49D8A1BAE3DD}"/>
   </bookViews>
   <sheets>
     <sheet name="htool" sheetId="11" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="719" uniqueCount="400">
   <si>
     <t>delta_pid</t>
   </si>
@@ -650,9 +650,6 @@
     <t>(process_cmdline CONTAINS 'Invoke-Mimikatz')</t>
   </si>
   <si>
-    <t>file_create-windows_any</t>
-  </si>
-  <si>
     <t>mimikatz-pid0018</t>
   </si>
   <si>
@@ -780,6 +777,465 @@
   </si>
   <si>
     <t>t1003.001</t>
+  </si>
+  <si>
+    <t>impacket-pid0004</t>
+  </si>
+  <si>
+    <t>(initiating_process_cmdline CONTAINS['wmiprvse'AND '-secured' AND '-Embedding) AND (process_cmdline CONTAINS 'curl')</t>
+  </si>
+  <si>
+    <t>Impacket Wmiprvse Spawning Curl</t>
+  </si>
+  <si>
+    <t>Procdump Minidump LSASS</t>
+  </si>
+  <si>
+    <t>Procdump Minidump</t>
+  </si>
+  <si>
+    <t>Procdump Fulldump LSASS</t>
+  </si>
+  <si>
+    <t>Procdump Fulldump</t>
+  </si>
+  <si>
+    <t>Procdump Cmdline IOC</t>
+  </si>
+  <si>
+    <t>(process_cmdline CONTIAINS '-procdump'')</t>
+  </si>
+  <si>
+    <t>process_create-any</t>
+  </si>
+  <si>
+    <t>file_event-windows_any</t>
+  </si>
+  <si>
+    <t>(process_cmdline CONTIAINS ['-accepteula'  AND 'psexec'])</t>
+  </si>
+  <si>
+    <t>Psexec Auto Accept Eula</t>
+  </si>
+  <si>
+    <t>(process_cmdline CONTIAINS ['Procdump'  AND '-Accepteula'])</t>
+  </si>
+  <si>
+    <t>(process_cmdline CONTIAINS ['procdump'  AND '-ma'])</t>
+  </si>
+  <si>
+    <t>(process_cmdline CONTIAINS ['-procdump' AND 'LSASS' AND '-ma'])</t>
+  </si>
+  <si>
+    <t>(process_cmdline CONTIAINS ['-procdump'  AND '-mm'])</t>
+  </si>
+  <si>
+    <t>(process_cmdline CONTIAINS ['procdump' AND 'LSASS' AND '-mm'])</t>
+  </si>
+  <si>
+    <t>(process_cmdline CONTAINS '-accepteula') AND (process_cmdline CONTAINS ['-mm' OR '-ma']) AND (process_path NOT CONTAINS 'procdump')</t>
+  </si>
+  <si>
+    <t>Renamed Procdump</t>
+  </si>
+  <si>
+    <t>t1004</t>
+  </si>
+  <si>
+    <t>Procdump Auto Accept Eula</t>
+  </si>
+  <si>
+    <t>psexec-pid0001</t>
+  </si>
+  <si>
+    <t>procdump-pid0001</t>
+  </si>
+  <si>
+    <t>procdump-pid0002</t>
+  </si>
+  <si>
+    <t>procdump-pid0003</t>
+  </si>
+  <si>
+    <t>procdump-pid0004</t>
+  </si>
+  <si>
+    <t>procdump-pid0005</t>
+  </si>
+  <si>
+    <t>procdump-pid0006</t>
+  </si>
+  <si>
+    <t>procdump-pid0007</t>
+  </si>
+  <si>
+    <t>psexec-pid0002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Psexec Run As System Deteched </t>
+  </si>
+  <si>
+    <t>(process_cmdline CONTIAINS [ 'psexec' AND '-u' AND '-p' AND '\\'])</t>
+  </si>
+  <si>
+    <t>Psexec Remote Host With User &amp; Pwd</t>
+  </si>
+  <si>
+    <t>Pseexec Remote Host Connection</t>
+  </si>
+  <si>
+    <t>(process_cmdline CONTIAINS [ 'psexec' AND '\\'])</t>
+  </si>
+  <si>
+    <t>(process_cmdline CONTIAINS [ 'psexec' AND '-s' AND '-d' AND '\\'])</t>
+  </si>
+  <si>
+    <t>Pseexec Read Remote Host From Text File</t>
+  </si>
+  <si>
+    <t>(process_cmdline CONTIAINS [ 'psexec' AND ' @' AND 'txt'])</t>
+  </si>
+  <si>
+    <t>Psexec Remote Copy Via CMD</t>
+  </si>
+  <si>
+    <t>(process_cmdline CONTIAINS [ 'psexec' AND ' cmd' AND '/c' AND 'copy'])</t>
+  </si>
+  <si>
+    <t>Flag -c: This tells PsExec to copy the specified executable (in this case, 1.bat) to the remote system for execution. It's copied to the Windows\system32 directory on the remote system, and then deleted after execution</t>
+  </si>
+  <si>
+    <t>(process_cmdline CONTIAINS [ 'psexec' AND ' -c' AND '-f' AND ' @'])</t>
+  </si>
+  <si>
+    <t>psexec-pid0003</t>
+  </si>
+  <si>
+    <t>psexec-pid0004</t>
+  </si>
+  <si>
+    <t>psexec-pid0005</t>
+  </si>
+  <si>
+    <t>psexec-pid0006</t>
+  </si>
+  <si>
+    <t>psexec-pid0007</t>
+  </si>
+  <si>
+    <t>psexec-pid0008</t>
+  </si>
+  <si>
+    <t>PsexecForced Copy to Execute On Multiple Hosts</t>
+  </si>
+  <si>
+    <t>Psexec Forced Copy to Elevated Execute On Multiple Hosts</t>
+  </si>
+  <si>
+    <t>(process_cmdline CONTIAINS [ 'psexec' AND ' -c' AND '-f' AND ' @' ]) AND (process_cmdline CONTAINS['-h' OR '-s'])</t>
+  </si>
+  <si>
+    <t>PsexecForced Copy to Execute On Remote Host</t>
+  </si>
+  <si>
+    <t>Psexec Forced Copy to Elevated Execute On Remote Host</t>
+  </si>
+  <si>
+    <t>(process_cmdline CONTIAINS [ 'psexec' AND ' -c' AND '-f' AND '\\'])</t>
+  </si>
+  <si>
+    <t>(process_cmdline CONTIAINS [ 'psexec' AND ' -c' AND '-f' AND '\\' ]) AND (process_cmdline CONTAINS['-h' OR '-s'])</t>
+  </si>
+  <si>
+    <t>psexec-pid0009</t>
+  </si>
+  <si>
+    <t>psexec-pid0010</t>
+  </si>
+  <si>
+    <t>(process_cmdline CONTIAINS [ 'psexec' AND '\windows\temp'])</t>
+  </si>
+  <si>
+    <t>Psexec Copy to Windows Temp</t>
+  </si>
+  <si>
+    <t>psexec-pid0011</t>
+  </si>
+  <si>
+    <t>(process_cmdline CONTIAINS [ 'psexec' AND ' -c' ])</t>
+  </si>
+  <si>
+    <t>Psexec Copy to Execute in Windows\System32</t>
+  </si>
+  <si>
+    <t>psexec-pid0012</t>
+  </si>
+  <si>
+    <t>(process_cmdline CONTIAINS [ 'psexec' AND 'sysvol' ])</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Psexec Connecting to Sysvol Share </t>
+  </si>
+  <si>
+    <t>psexec-pid0013</t>
+  </si>
+  <si>
+    <t>Psexec Run With Changed Service Name</t>
+  </si>
+  <si>
+    <t>(process_cmdline CONTIAINS [ 'psexec' AND ' -r' ])</t>
+  </si>
+  <si>
+    <t>Flag -r &lt;service&gt; This flag specifies the name of the PsExec remote service. By default, PsExec creates a temporary service named PSEXECSVC on the target machine. This flag allows you to change that service name to &lt;service&gt;</t>
+  </si>
+  <si>
+    <t>psexec-pid0014</t>
+  </si>
+  <si>
+    <t>rclone-pid0001</t>
+  </si>
+  <si>
+    <t>Rclone Exe</t>
+  </si>
+  <si>
+    <t>(file_name EQUALS 'rclone.exe')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rclone CMDLINE </t>
+  </si>
+  <si>
+    <t>(process_cmdline CONTIAINS  'rclone' )</t>
+  </si>
+  <si>
+    <t>rclone-pid0002</t>
+  </si>
+  <si>
+    <t>Rclone Copy With Config File</t>
+  </si>
+  <si>
+    <t>Rclone Copy</t>
+  </si>
+  <si>
+    <t>(process_cmdline CONTIAINS  ['rclone' AND 'config' AND 'copy'])</t>
+  </si>
+  <si>
+    <t>(process_cmdline CONTIAINS  ['rclone' AND  'copy'])</t>
+  </si>
+  <si>
+    <t>Rclone Copy To Remote Quietly</t>
+  </si>
+  <si>
+    <t>(process_cmdline CONTIAINS  ['copy' AND 'remote:']) AND (process_cmdline COTNAINS ['-q' OR '--quiet'])</t>
+  </si>
+  <si>
+    <t>rclone-pid0003</t>
+  </si>
+  <si>
+    <t>rclone-pid0004</t>
+  </si>
+  <si>
+    <t>rclone-pid0005</t>
+  </si>
+  <si>
+    <t>(process_cmdline CONTAINS ['copy']) AND (process_cmdline NOT CONTAINS 'rclone') AND (process_cmdline CONTAINS ['--progress' OR '--transfers' OR '--multi-thread-streams' OR '--ignore' OR 'remote:' OR 'mega:')</t>
+  </si>
+  <si>
+    <t>(process_cmdline CONTAINS ['mega:' AND 'copy'])</t>
+  </si>
+  <si>
+    <t>Rclone Copy To Mega</t>
+  </si>
+  <si>
+    <t>Rclone Masqurading</t>
+  </si>
+  <si>
+    <t>rclone-pid0006</t>
+  </si>
+  <si>
+    <t>rclone-pid0007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(process_cmdline CONTAINS ['rclone' AND 'copy' AND 'mega' AND '--mega-user=' AND '--mega-pass=']) </t>
+  </si>
+  <si>
+    <t>Rclone Copy To Mega With User &amp; Pwd</t>
+  </si>
+  <si>
+    <t>rclone-pid0008</t>
+  </si>
+  <si>
+    <t>(process_cmdline CONTAINS 'tsssp::')</t>
+  </si>
+  <si>
+    <t>(process_cmdline CONTAINS 'tgt::')</t>
+  </si>
+  <si>
+    <t>(process_cmdline CONTAINS 'tgs::')</t>
+  </si>
+  <si>
+    <t>(process_cmdline CONTAINS 'ntlm::')</t>
+  </si>
+  <si>
+    <t>(process_cmdline CONTAINS 'smb::')</t>
+  </si>
+  <si>
+    <t>(process_cmdline CONTAINS 'exploit::')</t>
+  </si>
+  <si>
+    <t>Kekeo TSSSP Module</t>
+  </si>
+  <si>
+    <t>Kekeo TGT Module</t>
+  </si>
+  <si>
+    <t>Kekeo TGS Module</t>
+  </si>
+  <si>
+    <t>Kekeo NTLM Module</t>
+  </si>
+  <si>
+    <t>Kekeo SMB Module</t>
+  </si>
+  <si>
+    <t>Kekeo EXPLOIT Module</t>
+  </si>
+  <si>
+    <t>kekeo-pid0001</t>
+  </si>
+  <si>
+    <t>kekeo-pid0002</t>
+  </si>
+  <si>
+    <t>kekeo-pid0003</t>
+  </si>
+  <si>
+    <t>kekeo-pid0004</t>
+  </si>
+  <si>
+    <t>kekeo-pid0005</t>
+  </si>
+  <si>
+    <t>kekeo-pid0006</t>
+  </si>
+  <si>
+    <t>Rubeus CMDLINE Indicator</t>
+  </si>
+  <si>
+    <t>Rubeus Kerberoast</t>
+  </si>
+  <si>
+    <t>(process_cmdline CONTAINS 'rubeus')</t>
+  </si>
+  <si>
+    <t>(process_cmdline CONTAINS 'kerberoast')</t>
+  </si>
+  <si>
+    <t>(process_cmdline CONTAINS 'asreproast')</t>
+  </si>
+  <si>
+    <t>Rubeus Asreproast</t>
+  </si>
+  <si>
+    <t>rubeus-pid0001</t>
+  </si>
+  <si>
+    <t>rubeus-pid0002</t>
+  </si>
+  <si>
+    <t>rubeus-pid0003</t>
+  </si>
+  <si>
+    <t>rubeus-pid0004</t>
+  </si>
+  <si>
+    <t>(process_cmdline CONTAINS ['/ldapfilter' AND 'admincount=1'])</t>
+  </si>
+  <si>
+    <t>Rubeus Flag For Account With Admin Privleges</t>
+  </si>
+  <si>
+    <t>(process_cmdline CONTAINS ['/format' AND 'hashcat'])</t>
+  </si>
+  <si>
+    <t>rubeus-pid0005</t>
+  </si>
+  <si>
+    <t>Rubeus Output For Hashcat</t>
+  </si>
+  <si>
+    <t>dsquery-pid0001</t>
+  </si>
+  <si>
+    <t>Dsquery Domain Trust</t>
+  </si>
+  <si>
+    <t>(process_cmdline CONTAINS ['dsquery' AND 'objectclass=trustedDomain'])</t>
+  </si>
+  <si>
+    <t>netscan-pid0001</t>
+  </si>
+  <si>
+    <t>(process_cmdline CONTAINS 'netscan')</t>
+  </si>
+  <si>
+    <t>Soft Perfect Netscan CMDLINE</t>
+  </si>
+  <si>
+    <t>(process_cmdline CONTAINS ['netscan' AND 'range'])</t>
+  </si>
+  <si>
+    <t>(process_cmdline CONTAINS ['netscan' AND 'hide'])</t>
+  </si>
+  <si>
+    <t>Soft Perfect Netscan Scan</t>
+  </si>
+  <si>
+    <t>Soft Perfect Netscan Hidden Mode</t>
+  </si>
+  <si>
+    <t>netscan-pid0002</t>
+  </si>
+  <si>
+    <t>netscan-pid0003</t>
+  </si>
+  <si>
+    <t>t1046</t>
+  </si>
+  <si>
+    <t>pypykatz-pid0001</t>
+  </si>
+  <si>
+    <t>Pypykatz</t>
+  </si>
+  <si>
+    <t>(process_cmdline CONTAINS 'pypykatz')</t>
+  </si>
+  <si>
+    <t>Pypykatz Live Lsa</t>
+  </si>
+  <si>
+    <t>Pypykatz Live Registry</t>
+  </si>
+  <si>
+    <t>Pypykatz Live Dcsync</t>
+  </si>
+  <si>
+    <t>(process_cmdline CONTAINS ['live' AND 'lsa'])</t>
+  </si>
+  <si>
+    <t>(process_cmdline CONTAINS ['live' AND 'registry'])</t>
+  </si>
+  <si>
+    <t>(process_cmdline CONTAINS ['live' AND 'smb' AND 'dcsync])</t>
+  </si>
+  <si>
+    <t>pypykatz-pid0002</t>
+  </si>
+  <si>
+    <t>pypykatz-pid0003</t>
+  </si>
+  <si>
+    <t>pypykatz-pid0004</t>
   </si>
 </sst>
 </file>
@@ -830,7 +1286,10 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="4">
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -854,20 +1313,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{ADEC3577-1F36-F84B-85AB-0609B6E8D29F}" name="Table13472" displayName="Table13472" ref="A1:H78" totalsRowShown="0">
-  <autoFilter ref="A1:H78" xr:uid="{2ECF150C-73C0-5243-B337-9408B556D9AF}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H78">
-    <sortCondition ref="A1:A78"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{ADEC3577-1F36-F84B-85AB-0609B6E8D29F}" name="Table13472" displayName="Table13472" ref="A1:H127" totalsRowShown="0">
+  <autoFilter ref="A1:H127" xr:uid="{2ECF150C-73C0-5243-B337-9408B556D9AF}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H127">
+    <sortCondition ref="A1:A127"/>
   </sortState>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{AB514F3C-8608-DB4C-8E75-9D2E53BD878E}" name="delta_pid"/>
     <tableColumn id="2" xr3:uid="{F2F3F91B-6F6E-C64E-B4E5-39CE72852CBF}" name="delta_did"/>
-    <tableColumn id="3" xr3:uid="{DA25C217-2F08-BC48-ACDE-CE3DF436F543}" name="name" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{2393C479-16D7-EB40-8FEF-EC171BB4379F}" name="atk_tech" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{DA25C217-2F08-BC48-ACDE-CE3DF436F543}" name="name" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{2393C479-16D7-EB40-8FEF-EC171BB4379F}" name="atk_tech" dataDxfId="2"/>
     <tableColumn id="6" xr3:uid="{77FC7560-D092-A640-AC28-22C11D8F40DF}" name="atk_subtech"/>
     <tableColumn id="7" xr3:uid="{76F615A0-C0C9-3548-B167-63FD7AFE81EE}" name="dpid_type"/>
-    <tableColumn id="8" xr3:uid="{AECC7095-4787-FA4F-96E2-A1CF91401FFC}" name="delta_pattern" dataDxfId="0"/>
-    <tableColumn id="9" xr3:uid="{E76E0E50-1733-7245-8D72-6D29F3EBD31C}" name="description"/>
+    <tableColumn id="8" xr3:uid="{AECC7095-4787-FA4F-96E2-A1CF91401FFC}" name="delta_pattern" dataDxfId="1"/>
+    <tableColumn id="9" xr3:uid="{E76E0E50-1733-7245-8D72-6D29F3EBD31C}" name="description" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1190,23 +1649,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A88CE158-A863-114C-85D4-CCEADE7949A0}">
-  <dimension ref="A1:H78"/>
+  <dimension ref="A1:H127"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D26" sqref="D26"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F124" sqref="F124:F127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.6640625" customWidth="1"/>
     <col min="2" max="2" width="35.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="31.1640625" style="1" customWidth="1"/>
     <col min="4" max="4" width="10.83203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.83203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="41.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="90.33203125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="65.5" customWidth="1"/>
+    <col min="8" max="8" width="65.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="17" x14ac:dyDescent="0.2">
@@ -1231,7 +1690,7 @@
       <c r="G1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
@@ -2139,38 +2598,35 @@
         <v>102</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>10</v>
+        <v>375</v>
       </c>
       <c r="B46" t="s">
         <v>8</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>11</v>
+        <v>376</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="E46" t="s">
-        <v>152</v>
+        <v>43</v>
       </c>
       <c r="F46" t="s">
         <v>5</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>12</v>
+        <v>377</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B47" t="s">
         <v>8</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>153</v>
@@ -2182,18 +2638,18 @@
         <v>5</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B48" t="s">
         <v>8</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>153</v>
@@ -2205,559 +2661,1484 @@
         <v>5</v>
       </c>
       <c r="G48" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>18</v>
+      </c>
+      <c r="B49" t="s">
+        <v>8</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E49" t="s">
+        <v>152</v>
+      </c>
+      <c r="F49" t="s">
+        <v>5</v>
+      </c>
+      <c r="G49" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>154</v>
-      </c>
-      <c r="B49" t="s">
-        <v>8</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="D49" s="1"/>
-      <c r="F49" t="s">
-        <v>5</v>
-      </c>
-      <c r="G49" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>167</v>
+        <v>247</v>
       </c>
       <c r="B50" t="s">
         <v>8</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>162</v>
+        <v>249</v>
       </c>
       <c r="D50" s="1"/>
       <c r="F50" t="s">
         <v>5</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>157</v>
+        <v>248</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>168</v>
+        <v>354</v>
       </c>
       <c r="B51" t="s">
         <v>8</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>163</v>
+        <v>348</v>
       </c>
       <c r="D51" s="1"/>
       <c r="F51" t="s">
         <v>5</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>158</v>
+        <v>342</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>169</v>
+        <v>355</v>
       </c>
       <c r="B52" t="s">
         <v>8</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="E52" t="s">
-        <v>246</v>
-      </c>
+        <v>349</v>
+      </c>
+      <c r="D52" s="1"/>
       <c r="F52" t="s">
         <v>5</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>159</v>
+        <v>343</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>170</v>
+        <v>356</v>
       </c>
       <c r="B53" t="s">
         <v>8</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>244</v>
-      </c>
+        <v>350</v>
+      </c>
+      <c r="D53" s="1"/>
       <c r="F53" t="s">
         <v>5</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>160</v>
+        <v>344</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>171</v>
+        <v>357</v>
       </c>
       <c r="B54" t="s">
         <v>8</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>166</v>
+        <v>351</v>
       </c>
       <c r="D54" s="1"/>
       <c r="F54" t="s">
         <v>5</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>161</v>
+        <v>345</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>185</v>
+        <v>358</v>
       </c>
       <c r="B55" t="s">
         <v>8</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>173</v>
+        <v>352</v>
       </c>
       <c r="D55" s="1"/>
       <c r="F55" t="s">
         <v>5</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>172</v>
+        <v>346</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>186</v>
+        <v>359</v>
       </c>
       <c r="B56" t="s">
         <v>8</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>174</v>
+        <v>353</v>
       </c>
       <c r="D56" s="1"/>
       <c r="F56" t="s">
         <v>5</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>175</v>
+        <v>347</v>
       </c>
     </row>
     <row r="57" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>187</v>
+        <v>154</v>
       </c>
       <c r="B57" t="s">
         <v>8</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>177</v>
+        <v>155</v>
       </c>
       <c r="D57" s="1"/>
       <c r="F57" t="s">
         <v>5</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>176</v>
+        <v>156</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>188</v>
+        <v>167</v>
       </c>
       <c r="B58" t="s">
         <v>8</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>177</v>
+        <v>162</v>
       </c>
       <c r="D58" s="1"/>
       <c r="F58" t="s">
         <v>5</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>178</v>
+        <v>157</v>
       </c>
     </row>
     <row r="59" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>189</v>
+        <v>168</v>
       </c>
       <c r="B59" t="s">
         <v>8</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="E59" t="s">
-        <v>247</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="D59" s="1"/>
       <c r="F59" t="s">
         <v>5</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>179</v>
+        <v>158</v>
       </c>
     </row>
     <row r="60" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>190</v>
+        <v>169</v>
       </c>
       <c r="B60" t="s">
         <v>8</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="D60" s="1"/>
+        <v>164</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="E60" t="s">
+        <v>245</v>
+      </c>
       <c r="F60" t="s">
         <v>5</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>180</v>
+        <v>159</v>
       </c>
     </row>
     <row r="61" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>191</v>
+        <v>170</v>
       </c>
       <c r="B61" t="s">
         <v>8</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="D61" s="1"/>
+        <v>165</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>243</v>
+      </c>
       <c r="F61" t="s">
         <v>5</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>183</v>
+        <v>160</v>
       </c>
     </row>
     <row r="62" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>194</v>
+        <v>171</v>
       </c>
       <c r="B62" t="s">
         <v>8</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>196</v>
+        <v>166</v>
       </c>
       <c r="D62" s="1"/>
       <c r="F62" t="s">
         <v>5</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>192</v>
+        <v>161</v>
       </c>
     </row>
     <row r="63" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="B63" t="s">
         <v>8</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>197</v>
+        <v>173</v>
       </c>
       <c r="D63" s="1"/>
       <c r="F63" t="s">
         <v>5</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>193</v>
+        <v>172</v>
       </c>
     </row>
     <row r="64" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="B64" t="s">
         <v>8</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>199</v>
+        <v>174</v>
       </c>
       <c r="D64" s="1"/>
       <c r="F64" t="s">
         <v>5</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>198</v>
+        <v>175</v>
       </c>
     </row>
     <row r="65" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>201</v>
+        <v>187</v>
       </c>
       <c r="B65" t="s">
         <v>8</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>202</v>
+        <v>177</v>
       </c>
       <c r="D65" s="1"/>
       <c r="F65" t="s">
         <v>5</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>203</v>
+        <v>176</v>
       </c>
     </row>
     <row r="66" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>205</v>
+        <v>188</v>
       </c>
       <c r="B66" t="s">
-        <v>204</v>
+        <v>8</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>206</v>
+        <v>177</v>
       </c>
       <c r="D66" s="1"/>
       <c r="F66" t="s">
         <v>5</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>207</v>
+        <v>178</v>
       </c>
     </row>
     <row r="67" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>208</v>
+        <v>189</v>
       </c>
       <c r="B67" t="s">
-        <v>204</v>
+        <v>8</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="D67" s="1"/>
+        <v>181</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="E67" t="s">
+        <v>246</v>
+      </c>
       <c r="F67" t="s">
         <v>5</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>209</v>
+        <v>179</v>
       </c>
     </row>
     <row r="68" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>211</v>
+        <v>190</v>
       </c>
       <c r="B68" t="s">
-        <v>204</v>
+        <v>8</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>213</v>
+        <v>182</v>
       </c>
       <c r="D68" s="1"/>
       <c r="F68" t="s">
         <v>5</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>210</v>
+        <v>180</v>
       </c>
     </row>
     <row r="69" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>216</v>
+        <v>191</v>
       </c>
       <c r="B69" t="s">
-        <v>204</v>
+        <v>8</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>218</v>
+        <v>184</v>
       </c>
       <c r="D69" s="1"/>
       <c r="F69" t="s">
         <v>5</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>214</v>
+        <v>183</v>
       </c>
     </row>
     <row r="70" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>217</v>
+        <v>194</v>
       </c>
       <c r="B70" t="s">
-        <v>204</v>
+        <v>8</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>219</v>
+        <v>196</v>
       </c>
       <c r="D70" s="1"/>
       <c r="F70" t="s">
         <v>5</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>215</v>
+        <v>192</v>
       </c>
     </row>
     <row r="71" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>220</v>
+        <v>195</v>
       </c>
       <c r="B71" t="s">
         <v>8</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>221</v>
+        <v>197</v>
       </c>
       <c r="D71" s="1"/>
       <c r="F71" t="s">
         <v>5</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>222</v>
+        <v>193</v>
       </c>
     </row>
     <row r="72" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>224</v>
+        <v>200</v>
       </c>
       <c r="B72" t="s">
         <v>8</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>225</v>
+        <v>199</v>
       </c>
       <c r="D72" s="1"/>
       <c r="F72" t="s">
         <v>5</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>223</v>
+        <v>198</v>
       </c>
     </row>
     <row r="73" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>228</v>
+        <v>201</v>
       </c>
       <c r="B73" t="s">
         <v>8</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>230</v>
+        <v>202</v>
       </c>
       <c r="D73" s="1"/>
       <c r="F73" t="s">
         <v>5</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>226</v>
+        <v>203</v>
       </c>
     </row>
     <row r="74" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>229</v>
+        <v>204</v>
       </c>
       <c r="B74" t="s">
-        <v>8</v>
+        <v>257</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>231</v>
+        <v>205</v>
       </c>
       <c r="D74" s="1"/>
       <c r="F74" t="s">
         <v>5</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>227</v>
+        <v>206</v>
       </c>
     </row>
     <row r="75" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>232</v>
+        <v>207</v>
       </c>
       <c r="B75" t="s">
-        <v>8</v>
+        <v>257</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>233</v>
+        <v>211</v>
       </c>
       <c r="D75" s="1"/>
       <c r="F75" t="s">
         <v>5</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>234</v>
+        <v>208</v>
       </c>
     </row>
     <row r="76" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>235</v>
+        <v>210</v>
       </c>
       <c r="B76" t="s">
-        <v>8</v>
+        <v>257</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>236</v>
+        <v>212</v>
       </c>
       <c r="D76" s="1"/>
       <c r="F76" t="s">
         <v>5</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>239</v>
+        <v>209</v>
       </c>
     </row>
     <row r="77" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>237</v>
+        <v>215</v>
       </c>
       <c r="B77" t="s">
-        <v>8</v>
+        <v>257</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>238</v>
+        <v>217</v>
       </c>
       <c r="D77" s="1"/>
       <c r="F77" t="s">
         <v>5</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>240</v>
+        <v>213</v>
       </c>
     </row>
     <row r="78" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>241</v>
+        <v>216</v>
       </c>
       <c r="B78" t="s">
-        <v>8</v>
+        <v>257</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>242</v>
+        <v>218</v>
       </c>
       <c r="D78" s="1"/>
       <c r="F78" t="s">
         <v>5</v>
       </c>
       <c r="G78" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>378</v>
+      </c>
+      <c r="B79" t="s">
+        <v>8</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="F79" t="s">
+        <v>5</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>385</v>
+      </c>
+      <c r="B80" t="s">
+        <v>8</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="F80" t="s">
+        <v>5</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>386</v>
+      </c>
+      <c r="B81" t="s">
+        <v>8</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="F81" t="s">
+        <v>5</v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>219</v>
+      </c>
+      <c r="B82" t="s">
+        <v>256</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="D82" s="1"/>
+      <c r="F82" t="s">
+        <v>5</v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>223</v>
+      </c>
+      <c r="B83" t="s">
+        <v>256</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="D83" s="1"/>
+      <c r="F83" t="s">
+        <v>5</v>
+      </c>
+      <c r="G83" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>227</v>
+      </c>
+      <c r="B84" t="s">
+        <v>256</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="D84" s="1"/>
+      <c r="F84" t="s">
+        <v>5</v>
+      </c>
+      <c r="G84" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>228</v>
+      </c>
+      <c r="B85" t="s">
+        <v>256</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="D85" s="1"/>
+      <c r="F85" t="s">
+        <v>5</v>
+      </c>
+      <c r="G85" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>231</v>
+      </c>
+      <c r="B86" t="s">
+        <v>256</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="D86" s="1"/>
+      <c r="F86" t="s">
+        <v>5</v>
+      </c>
+      <c r="G86" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>234</v>
+      </c>
+      <c r="B87" t="s">
+        <v>256</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="D87" s="1"/>
+      <c r="F87" t="s">
+        <v>5</v>
+      </c>
+      <c r="G87" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>236</v>
+      </c>
+      <c r="B88" t="s">
+        <v>256</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="D88" s="1"/>
+      <c r="F88" t="s">
+        <v>5</v>
+      </c>
+      <c r="G88" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>240</v>
+      </c>
+      <c r="B89" t="s">
+        <v>256</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D89" s="1"/>
+      <c r="F89" t="s">
+        <v>5</v>
+      </c>
+      <c r="G89" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>270</v>
+      </c>
+      <c r="B90" t="s">
+        <v>8</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="D90" s="1" t="s">
         <v>243</v>
+      </c>
+      <c r="E90" t="s">
+        <v>246</v>
+      </c>
+      <c r="F90" t="s">
+        <v>5</v>
+      </c>
+      <c r="G90" s="1" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>271</v>
+      </c>
+      <c r="B91" t="s">
+        <v>8</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="F91" t="s">
+        <v>5</v>
+      </c>
+      <c r="G91" s="1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>272</v>
+      </c>
+      <c r="B92" t="s">
+        <v>8</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="E92" t="s">
+        <v>246</v>
+      </c>
+      <c r="F92" t="s">
+        <v>5</v>
+      </c>
+      <c r="G92" s="1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>273</v>
+      </c>
+      <c r="B93" t="s">
+        <v>8</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="F93" t="s">
+        <v>5</v>
+      </c>
+      <c r="G93" s="1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>274</v>
+      </c>
+      <c r="B94" t="s">
+        <v>8</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="F94" t="s">
+        <v>5</v>
+      </c>
+      <c r="G94" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>275</v>
+      </c>
+      <c r="B95" t="s">
+        <v>8</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="F95" t="s">
+        <v>5</v>
+      </c>
+      <c r="G95" s="1" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>276</v>
+      </c>
+      <c r="B96" t="s">
+        <v>8</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="D96" s="1"/>
+      <c r="F96" t="s">
+        <v>5</v>
+      </c>
+      <c r="G96" s="1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>269</v>
+      </c>
+      <c r="B97" t="s">
+        <v>8</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="D97" s="1"/>
+      <c r="F97" t="s">
+        <v>5</v>
+      </c>
+      <c r="G97" s="1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>277</v>
+      </c>
+      <c r="B98" t="s">
+        <v>8</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="D98" s="1"/>
+      <c r="F98" t="s">
+        <v>5</v>
+      </c>
+      <c r="G98" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>290</v>
+      </c>
+      <c r="B99" t="s">
+        <v>8</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="D99" s="1"/>
+      <c r="F99" t="s">
+        <v>5</v>
+      </c>
+      <c r="G99" s="1" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>291</v>
+      </c>
+      <c r="B100" t="s">
+        <v>8</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="D100" s="1"/>
+      <c r="F100" t="s">
+        <v>5</v>
+      </c>
+      <c r="G100" s="1" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>292</v>
+      </c>
+      <c r="B101" t="s">
+        <v>8</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="D101" s="1"/>
+      <c r="F101" t="s">
+        <v>5</v>
+      </c>
+      <c r="G101" s="1" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>293</v>
+      </c>
+      <c r="B102" t="s">
+        <v>8</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="D102" s="1"/>
+      <c r="F102" t="s">
+        <v>5</v>
+      </c>
+      <c r="G102" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>294</v>
+      </c>
+      <c r="B103" t="s">
+        <v>8</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="D103" s="1"/>
+      <c r="F103" t="s">
+        <v>5</v>
+      </c>
+      <c r="G103" s="1" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>295</v>
+      </c>
+      <c r="B104" t="s">
+        <v>8</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="D104" s="1"/>
+      <c r="F104" t="s">
+        <v>5</v>
+      </c>
+      <c r="G104" s="1" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>303</v>
+      </c>
+      <c r="B105" t="s">
+        <v>8</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="D105" s="1"/>
+      <c r="F105" t="s">
+        <v>5</v>
+      </c>
+      <c r="G105" s="1" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>304</v>
+      </c>
+      <c r="B106" t="s">
+        <v>8</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="D106" s="1"/>
+      <c r="F106" t="s">
+        <v>5</v>
+      </c>
+      <c r="G106" s="1" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>307</v>
+      </c>
+      <c r="B107" t="s">
+        <v>8</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="D107" s="1"/>
+      <c r="F107" t="s">
+        <v>5</v>
+      </c>
+      <c r="G107" s="1" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>310</v>
+      </c>
+      <c r="B108" t="s">
+        <v>8</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="D108" s="1"/>
+      <c r="F108" t="s">
+        <v>5</v>
+      </c>
+      <c r="G108" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="H108" s="1" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>313</v>
+      </c>
+      <c r="B109" t="s">
+        <v>8</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="D109" s="1"/>
+      <c r="F109" t="s">
+        <v>5</v>
+      </c>
+      <c r="G109" s="1" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>317</v>
+      </c>
+      <c r="B110" t="s">
+        <v>8</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="D110" s="1"/>
+      <c r="F110" t="s">
+        <v>5</v>
+      </c>
+      <c r="G110" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="H110" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>388</v>
+      </c>
+      <c r="B111" t="s">
+        <v>8</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="F111" t="s">
+        <v>5</v>
+      </c>
+      <c r="G111" s="1" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>397</v>
+      </c>
+      <c r="B112" t="s">
+        <v>8</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="F112" t="s">
+        <v>5</v>
+      </c>
+      <c r="G112" s="1" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>398</v>
+      </c>
+      <c r="B113" t="s">
+        <v>8</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="F113" t="s">
+        <v>5</v>
+      </c>
+      <c r="G113" s="1" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>399</v>
+      </c>
+      <c r="B114" t="s">
+        <v>8</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="F114" t="s">
+        <v>5</v>
+      </c>
+      <c r="G114" s="1" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>318</v>
+      </c>
+      <c r="B115" t="s">
+        <v>257</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="D115" s="1"/>
+      <c r="F115" t="s">
+        <v>5</v>
+      </c>
+      <c r="G115" s="1" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>323</v>
+      </c>
+      <c r="B116" t="s">
+        <v>256</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="D116" s="1"/>
+      <c r="F116" t="s">
+        <v>5</v>
+      </c>
+      <c r="G116" s="1" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>330</v>
+      </c>
+      <c r="B117" t="s">
+        <v>256</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="D117" s="1"/>
+      <c r="F117" t="s">
+        <v>5</v>
+      </c>
+      <c r="G117" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>331</v>
+      </c>
+      <c r="B118" t="s">
+        <v>256</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="D118" s="1"/>
+      <c r="F118" t="s">
+        <v>5</v>
+      </c>
+      <c r="G118" s="1" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>332</v>
+      </c>
+      <c r="B119" t="s">
+        <v>256</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="D119" s="1"/>
+      <c r="F119" t="s">
+        <v>5</v>
+      </c>
+      <c r="G119" s="1" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>337</v>
+      </c>
+      <c r="B120" t="s">
+        <v>256</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="D120" s="1"/>
+      <c r="F120" t="s">
+        <v>5</v>
+      </c>
+      <c r="G120" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>338</v>
+      </c>
+      <c r="B121" t="s">
+        <v>256</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="D121" s="1"/>
+      <c r="F121" t="s">
+        <v>5</v>
+      </c>
+      <c r="G121" s="1" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>341</v>
+      </c>
+      <c r="B122" t="s">
+        <v>256</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="D122" s="1"/>
+      <c r="F122" t="s">
+        <v>5</v>
+      </c>
+      <c r="G122" s="1" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>366</v>
+      </c>
+      <c r="B123" t="s">
+        <v>8</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="D123" s="1"/>
+      <c r="F123" t="s">
+        <v>5</v>
+      </c>
+      <c r="G123" s="1" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>367</v>
+      </c>
+      <c r="B124" t="s">
+        <v>8</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="D124" s="1"/>
+      <c r="F124" t="s">
+        <v>5</v>
+      </c>
+      <c r="G124" s="1" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>368</v>
+      </c>
+      <c r="B125" t="s">
+        <v>8</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="D125" s="1"/>
+      <c r="F125" t="s">
+        <v>5</v>
+      </c>
+      <c r="G125" s="1" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>369</v>
+      </c>
+      <c r="B126" t="s">
+        <v>8</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="D126" s="1"/>
+      <c r="F126" t="s">
+        <v>5</v>
+      </c>
+      <c r="G126" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>373</v>
+      </c>
+      <c r="B127" t="s">
+        <v>8</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="D127" s="1"/>
+      <c r="F127" t="s">
+        <v>5</v>
+      </c>
+      <c r="G127" s="1" t="s">
+        <v>372</v>
       </c>
     </row>
   </sheetData>

--- a/delta2/lib_patterns/pid-htool.xlsx
+++ b/delta2/lib_patterns/pid-htool.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/harveywargo/Desktop/GithubProjects/h2w-delta/delta2/lib_patterns/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67182EFE-CA2D-794C-9FDC-E2B8EB047919}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43D7786E-8BCC-A74B-9597-303F4FF376FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="-21100" windowWidth="38400" windowHeight="21100" xr2:uid="{EE8A8287-073B-CF4A-B7DF-49D8A1BAE3DD}"/>
   </bookViews>
@@ -68,9 +68,6 @@
     <t>atk_subtech</t>
   </si>
   <si>
-    <t>impacket-pid0001</t>
-  </si>
-  <si>
     <t xml:space="preserve">Impacket Wmiexec.py </t>
   </si>
   <si>
@@ -80,9 +77,6 @@
     <t>(process_cmdline CONTAINS ['cmd' AND '/Q' AND '/c']) AND(process_cmdline CONTAINS [ '' 1&gt; 'AND '127.0.0.1' AND '\__' AND '2&gt;&amp;1' ]) AND (initiating_process_cmdline CONTAINS ['wmiprvse' AND -secured' AND '-Embedding'])</t>
   </si>
   <si>
-    <t>impacket-pid0002</t>
-  </si>
-  <si>
     <t>Impacket Wmiexec.py With Initiating Parent</t>
   </si>
   <si>
@@ -92,9 +86,6 @@
     <t>(process_cmdline CONTAINS ['cmd' AND '/Q' AND '/c']) AND (process_cmdline CONTAINS [ '' 1&gt; 'AND '127.0.0.1' AND 'ADMIN$' AND '\__' AND '2&gt;&amp;1' ])</t>
   </si>
   <si>
-    <t>impacket-pid0003</t>
-  </si>
-  <si>
     <t>(process_cmdline CONTAINS ['objectcategory=organizationalUnit' AND '-f'])</t>
   </si>
   <si>
@@ -362,147 +353,12 @@
     <t>Adfind &gt; Adinfo To Text File</t>
   </si>
   <si>
-    <t>adfind-pid0001</t>
-  </si>
-  <si>
-    <t>adfind-pid0002</t>
-  </si>
-  <si>
-    <t>adfind-pid0003</t>
-  </si>
-  <si>
-    <t>adfind-pid0004</t>
-  </si>
-  <si>
-    <t>adfind-pid0005</t>
-  </si>
-  <si>
-    <t>adfind-pid0006</t>
-  </si>
-  <si>
-    <t>adfind-pid0007</t>
-  </si>
-  <si>
-    <t>adfind-pid0008</t>
-  </si>
-  <si>
-    <t>adfind-pid0009</t>
-  </si>
-  <si>
-    <t>adfind-pid0010</t>
-  </si>
-  <si>
-    <t>adfind-pid0011</t>
-  </si>
-  <si>
-    <t>adfind-pid0012</t>
-  </si>
-  <si>
-    <t>adfind-pid0013</t>
-  </si>
-  <si>
-    <t>adfind-pid0014</t>
-  </si>
-  <si>
-    <t>adfind-pid0015</t>
-  </si>
-  <si>
-    <t>adfind-pid0016</t>
-  </si>
-  <si>
-    <t>adfind-pid0017</t>
-  </si>
-  <si>
-    <t>adfind-pid0018</t>
-  </si>
-  <si>
-    <t>adfind-pid0019</t>
-  </si>
-  <si>
-    <t>adfind-pid0020</t>
-  </si>
-  <si>
-    <t>adfind-pid0021</t>
-  </si>
-  <si>
-    <t>adfind-pid0022</t>
-  </si>
-  <si>
-    <t>adfind-pid0023</t>
-  </si>
-  <si>
-    <t>adfind-pid0024</t>
-  </si>
-  <si>
-    <t>adfind-pid0025</t>
-  </si>
-  <si>
-    <t>adfind-pid0026</t>
-  </si>
-  <si>
-    <t>adfind-pid0027</t>
-  </si>
-  <si>
-    <t>adfind-pid0028</t>
-  </si>
-  <si>
-    <t>adfind-pid0029</t>
-  </si>
-  <si>
-    <t>adfind-pid0030</t>
-  </si>
-  <si>
-    <t>adfind-pid0031</t>
-  </si>
-  <si>
-    <t>adfind-pid0032</t>
-  </si>
-  <si>
-    <t>adfind-pid0033</t>
-  </si>
-  <si>
-    <t>adfind-pid0034</t>
-  </si>
-  <si>
-    <t>adfind-pid0035</t>
-  </si>
-  <si>
-    <t>adfind-pid0036</t>
-  </si>
-  <si>
-    <t>adfind-pid0037</t>
-  </si>
-  <si>
-    <t>adfind-pid0038</t>
-  </si>
-  <si>
-    <t>adfind-pid0039</t>
-  </si>
-  <si>
-    <t>adfind-pid0040</t>
-  </si>
-  <si>
-    <t>adfind-pid0041</t>
-  </si>
-  <si>
-    <t>adfind-pid0042</t>
-  </si>
-  <si>
-    <t>adfind-pid0043</t>
-  </si>
-  <si>
-    <t>adfind-pid0044</t>
-  </si>
-  <si>
     <t>t1059.003</t>
   </si>
   <si>
     <t xml:space="preserve"> t1047, t1059, t1021</t>
   </si>
   <si>
-    <t>mimikatz-pid0001</t>
-  </si>
-  <si>
     <t>Mimikatz Crypto Module</t>
   </si>
   <si>
@@ -539,21 +395,6 @@
     <t>Mimikatz Misc Module</t>
   </si>
   <si>
-    <t>mimikatz-pid0002</t>
-  </si>
-  <si>
-    <t>mimikatz-pid0003</t>
-  </si>
-  <si>
-    <t>mimikatz-pid0004</t>
-  </si>
-  <si>
-    <t>mimikatz-pid0005</t>
-  </si>
-  <si>
-    <t>mimikatz-pid0006</t>
-  </si>
-  <si>
     <t>(process_cmdline CONTAINS 'net::')</t>
   </si>
   <si>
@@ -593,39 +434,12 @@
     <t>Mimikatz Sid Module</t>
   </si>
   <si>
-    <t>mimikatz-pid0007</t>
-  </si>
-  <si>
-    <t>mimikatz-pid0008</t>
-  </si>
-  <si>
-    <t>mimikatz-pid0009</t>
-  </si>
-  <si>
-    <t>mimikatz-pid0010</t>
-  </si>
-  <si>
-    <t>mimikatz-pid0011</t>
-  </si>
-  <si>
-    <t>mimikatz-pid0012</t>
-  </si>
-  <si>
-    <t>mimikatz-pid0013</t>
-  </si>
-  <si>
     <t>(process_cmdline CONTAINS 'token::')</t>
   </si>
   <si>
     <t>(process_cmdline CONTAINS 'ts::')</t>
   </si>
   <si>
-    <t>mimikatz-pid0014</t>
-  </si>
-  <si>
-    <t>mimikatz-pid0015</t>
-  </si>
-  <si>
     <t>Mimikatz Token Module</t>
   </si>
   <si>
@@ -638,39 +452,24 @@
     <t>Mimikatz Vault  Module</t>
   </si>
   <si>
-    <t>mimikatz-pid0016</t>
-  </si>
-  <si>
-    <t>mimikatz-pid0017</t>
-  </si>
-  <si>
     <t>Invoke-Mimikatz</t>
   </si>
   <si>
     <t>(process_cmdline CONTAINS 'Invoke-Mimikatz')</t>
   </si>
   <si>
-    <t>mimikatz-pid0018</t>
-  </si>
-  <si>
     <t>Mimikatz Default Install File Path</t>
   </si>
   <si>
     <t>(file_path CONTAINS ['\mimikatz\Win32' OR '\mimikatz\x64\'  OR 'mimikatz'])</t>
   </si>
   <si>
-    <t>mimikatz-pid0019</t>
-  </si>
-  <si>
     <t>(file_name EQUALS 'mimidrv.sys')</t>
   </si>
   <si>
     <t>(file_name EQUALS 'mimilib.dll')</t>
   </si>
   <si>
-    <t>mimikatz-pid0020</t>
-  </si>
-  <si>
     <t>Mimikatz IOC Mimidrv.sys</t>
   </si>
   <si>
@@ -683,21 +482,12 @@
     <t>(file_name EQUALS 'mimikatz.exe')</t>
   </si>
   <si>
-    <t>mimikatz-pid0021</t>
-  </si>
-  <si>
-    <t>mimikatz-pid0022</t>
-  </si>
-  <si>
     <t>Mimikatz IOC Mimispool.dll</t>
   </si>
   <si>
     <t>Mimikatz Executable IOC</t>
   </si>
   <si>
-    <t>ngrok-pid0001</t>
-  </si>
-  <si>
     <t>Ngrok Any Usage</t>
   </si>
   <si>
@@ -707,9 +497,6 @@
     <t>(process_cmdline CONTAINS [ 'Ngrok' AND 'http'])</t>
   </si>
   <si>
-    <t>ngrok-pid0002</t>
-  </si>
-  <si>
     <t>Ngrok HTTP Tunnel</t>
   </si>
   <si>
@@ -719,36 +506,21 @@
     <t>(process_cmdline CONTAINS [ 'Ngrok' AND 'tls'])</t>
   </si>
   <si>
-    <t>ngrok-pid0003</t>
-  </si>
-  <si>
-    <t>ngrok-pid0004</t>
-  </si>
-  <si>
     <t>Ngrok TCP Tunnel</t>
   </si>
   <si>
     <t>Ngrok TLS Tunnel</t>
   </si>
   <si>
-    <t>ngrok-pid0005</t>
-  </si>
-  <si>
     <t>Ngrok Add Auth Token</t>
   </si>
   <si>
     <t>(process_cmdline CONTAINS [ 'Ngrok' AND 'config' AND 'add-authtoken'])</t>
   </si>
   <si>
-    <t>ngrok-pid0006</t>
-  </si>
-  <si>
     <t>Ngrok Auth Token</t>
   </si>
   <si>
-    <t>ngrok-pid0007</t>
-  </si>
-  <si>
     <t>Ngrok Start All Tunnels</t>
   </si>
   <si>
@@ -758,9 +530,6 @@
     <t>(process_cmdline CONTAINS [ 'Ngrok' AND 'start' AND '--all'])</t>
   </si>
   <si>
-    <t>ngrok-pid0008</t>
-  </si>
-  <si>
     <t>Ngrok Start Tunnel</t>
   </si>
   <si>
@@ -779,9 +548,6 @@
     <t>t1003.001</t>
   </si>
   <si>
-    <t>impacket-pid0004</t>
-  </si>
-  <si>
     <t>(initiating_process_cmdline CONTAINS['wmiprvse'AND '-secured' AND '-Embedding) AND (process_cmdline CONTAINS 'curl')</t>
   </si>
   <si>
@@ -845,33 +611,6 @@
     <t>Procdump Auto Accept Eula</t>
   </si>
   <si>
-    <t>psexec-pid0001</t>
-  </si>
-  <si>
-    <t>procdump-pid0001</t>
-  </si>
-  <si>
-    <t>procdump-pid0002</t>
-  </si>
-  <si>
-    <t>procdump-pid0003</t>
-  </si>
-  <si>
-    <t>procdump-pid0004</t>
-  </si>
-  <si>
-    <t>procdump-pid0005</t>
-  </si>
-  <si>
-    <t>procdump-pid0006</t>
-  </si>
-  <si>
-    <t>procdump-pid0007</t>
-  </si>
-  <si>
-    <t>psexec-pid0002</t>
-  </si>
-  <si>
     <t xml:space="preserve">Psexec Run As System Deteched </t>
   </si>
   <si>
@@ -908,24 +647,6 @@
     <t>(process_cmdline CONTIAINS [ 'psexec' AND ' -c' AND '-f' AND ' @'])</t>
   </si>
   <si>
-    <t>psexec-pid0003</t>
-  </si>
-  <si>
-    <t>psexec-pid0004</t>
-  </si>
-  <si>
-    <t>psexec-pid0005</t>
-  </si>
-  <si>
-    <t>psexec-pid0006</t>
-  </si>
-  <si>
-    <t>psexec-pid0007</t>
-  </si>
-  <si>
-    <t>psexec-pid0008</t>
-  </si>
-  <si>
     <t>PsexecForced Copy to Execute On Multiple Hosts</t>
   </si>
   <si>
@@ -947,39 +668,24 @@
     <t>(process_cmdline CONTIAINS [ 'psexec' AND ' -c' AND '-f' AND '\\' ]) AND (process_cmdline CONTAINS['-h' OR '-s'])</t>
   </si>
   <si>
-    <t>psexec-pid0009</t>
-  </si>
-  <si>
-    <t>psexec-pid0010</t>
-  </si>
-  <si>
     <t>(process_cmdline CONTIAINS [ 'psexec' AND '\windows\temp'])</t>
   </si>
   <si>
     <t>Psexec Copy to Windows Temp</t>
   </si>
   <si>
-    <t>psexec-pid0011</t>
-  </si>
-  <si>
     <t>(process_cmdline CONTIAINS [ 'psexec' AND ' -c' ])</t>
   </si>
   <si>
     <t>Psexec Copy to Execute in Windows\System32</t>
   </si>
   <si>
-    <t>psexec-pid0012</t>
-  </si>
-  <si>
     <t>(process_cmdline CONTIAINS [ 'psexec' AND 'sysvol' ])</t>
   </si>
   <si>
     <t xml:space="preserve">Psexec Connecting to Sysvol Share </t>
   </si>
   <si>
-    <t>psexec-pid0013</t>
-  </si>
-  <si>
     <t>Psexec Run With Changed Service Name</t>
   </si>
   <si>
@@ -989,12 +695,6 @@
     <t>Flag -r &lt;service&gt; This flag specifies the name of the PsExec remote service. By default, PsExec creates a temporary service named PSEXECSVC on the target machine. This flag allows you to change that service name to &lt;service&gt;</t>
   </si>
   <si>
-    <t>psexec-pid0014</t>
-  </si>
-  <si>
-    <t>rclone-pid0001</t>
-  </si>
-  <si>
     <t>Rclone Exe</t>
   </si>
   <si>
@@ -1007,9 +707,6 @@
     <t>(process_cmdline CONTIAINS  'rclone' )</t>
   </si>
   <si>
-    <t>rclone-pid0002</t>
-  </si>
-  <si>
     <t>Rclone Copy With Config File</t>
   </si>
   <si>
@@ -1028,15 +725,6 @@
     <t>(process_cmdline CONTIAINS  ['copy' AND 'remote:']) AND (process_cmdline COTNAINS ['-q' OR '--quiet'])</t>
   </si>
   <si>
-    <t>rclone-pid0003</t>
-  </si>
-  <si>
-    <t>rclone-pid0004</t>
-  </si>
-  <si>
-    <t>rclone-pid0005</t>
-  </si>
-  <si>
     <t>(process_cmdline CONTAINS ['copy']) AND (process_cmdline NOT CONTAINS 'rclone') AND (process_cmdline CONTAINS ['--progress' OR '--transfers' OR '--multi-thread-streams' OR '--ignore' OR 'remote:' OR 'mega:')</t>
   </si>
   <si>
@@ -1049,21 +737,12 @@
     <t>Rclone Masqurading</t>
   </si>
   <si>
-    <t>rclone-pid0006</t>
-  </si>
-  <si>
-    <t>rclone-pid0007</t>
-  </si>
-  <si>
     <t xml:space="preserve">(process_cmdline CONTAINS ['rclone' AND 'copy' AND 'mega' AND '--mega-user=' AND '--mega-pass=']) </t>
   </si>
   <si>
     <t>Rclone Copy To Mega With User &amp; Pwd</t>
   </si>
   <si>
-    <t>rclone-pid0008</t>
-  </si>
-  <si>
     <t>(process_cmdline CONTAINS 'tsssp::')</t>
   </si>
   <si>
@@ -1100,24 +779,6 @@
     <t>Kekeo EXPLOIT Module</t>
   </si>
   <si>
-    <t>kekeo-pid0001</t>
-  </si>
-  <si>
-    <t>kekeo-pid0002</t>
-  </si>
-  <si>
-    <t>kekeo-pid0003</t>
-  </si>
-  <si>
-    <t>kekeo-pid0004</t>
-  </si>
-  <si>
-    <t>kekeo-pid0005</t>
-  </si>
-  <si>
-    <t>kekeo-pid0006</t>
-  </si>
-  <si>
     <t>Rubeus CMDLINE Indicator</t>
   </si>
   <si>
@@ -1136,18 +797,6 @@
     <t>Rubeus Asreproast</t>
   </si>
   <si>
-    <t>rubeus-pid0001</t>
-  </si>
-  <si>
-    <t>rubeus-pid0002</t>
-  </si>
-  <si>
-    <t>rubeus-pid0003</t>
-  </si>
-  <si>
-    <t>rubeus-pid0004</t>
-  </si>
-  <si>
     <t>(process_cmdline CONTAINS ['/ldapfilter' AND 'admincount=1'])</t>
   </si>
   <si>
@@ -1157,24 +806,15 @@
     <t>(process_cmdline CONTAINS ['/format' AND 'hashcat'])</t>
   </si>
   <si>
-    <t>rubeus-pid0005</t>
-  </si>
-  <si>
     <t>Rubeus Output For Hashcat</t>
   </si>
   <si>
-    <t>dsquery-pid0001</t>
-  </si>
-  <si>
     <t>Dsquery Domain Trust</t>
   </si>
   <si>
     <t>(process_cmdline CONTAINS ['dsquery' AND 'objectclass=trustedDomain'])</t>
   </si>
   <si>
-    <t>netscan-pid0001</t>
-  </si>
-  <si>
     <t>(process_cmdline CONTAINS 'netscan')</t>
   </si>
   <si>
@@ -1193,18 +833,9 @@
     <t>Soft Perfect Netscan Hidden Mode</t>
   </si>
   <si>
-    <t>netscan-pid0002</t>
-  </si>
-  <si>
-    <t>netscan-pid0003</t>
-  </si>
-  <si>
     <t>t1046</t>
   </si>
   <si>
-    <t>pypykatz-pid0001</t>
-  </si>
-  <si>
     <t>Pypykatz</t>
   </si>
   <si>
@@ -1229,13 +860,382 @@
     <t>(process_cmdline CONTAINS ['live' AND 'smb' AND 'dcsync])</t>
   </si>
   <si>
-    <t>pypykatz-pid0002</t>
-  </si>
-  <si>
-    <t>pypykatz-pid0003</t>
-  </si>
-  <si>
-    <t>pypykatz-pid0004</t>
+    <t>adfind-pid001</t>
+  </si>
+  <si>
+    <t>adfind-pid002</t>
+  </si>
+  <si>
+    <t>adfind-pid003</t>
+  </si>
+  <si>
+    <t>adfind-pid004</t>
+  </si>
+  <si>
+    <t>adfind-pid005</t>
+  </si>
+  <si>
+    <t>adfind-pid006</t>
+  </si>
+  <si>
+    <t>adfind-pid007</t>
+  </si>
+  <si>
+    <t>adfind-pid008</t>
+  </si>
+  <si>
+    <t>adfind-pid009</t>
+  </si>
+  <si>
+    <t>adfind-pid010</t>
+  </si>
+  <si>
+    <t>adfind-pid011</t>
+  </si>
+  <si>
+    <t>adfind-pid012</t>
+  </si>
+  <si>
+    <t>adfind-pid013</t>
+  </si>
+  <si>
+    <t>adfind-pid014</t>
+  </si>
+  <si>
+    <t>adfind-pid015</t>
+  </si>
+  <si>
+    <t>adfind-pid016</t>
+  </si>
+  <si>
+    <t>adfind-pid017</t>
+  </si>
+  <si>
+    <t>adfind-pid018</t>
+  </si>
+  <si>
+    <t>adfind-pid019</t>
+  </si>
+  <si>
+    <t>adfind-pid020</t>
+  </si>
+  <si>
+    <t>adfind-pid021</t>
+  </si>
+  <si>
+    <t>adfind-pid022</t>
+  </si>
+  <si>
+    <t>adfind-pid023</t>
+  </si>
+  <si>
+    <t>adfind-pid024</t>
+  </si>
+  <si>
+    <t>adfind-pid025</t>
+  </si>
+  <si>
+    <t>adfind-pid026</t>
+  </si>
+  <si>
+    <t>adfind-pid027</t>
+  </si>
+  <si>
+    <t>adfind-pid028</t>
+  </si>
+  <si>
+    <t>adfind-pid029</t>
+  </si>
+  <si>
+    <t>adfind-pid030</t>
+  </si>
+  <si>
+    <t>adfind-pid031</t>
+  </si>
+  <si>
+    <t>adfind-pid032</t>
+  </si>
+  <si>
+    <t>adfind-pid033</t>
+  </si>
+  <si>
+    <t>adfind-pid034</t>
+  </si>
+  <si>
+    <t>adfind-pid035</t>
+  </si>
+  <si>
+    <t>adfind-pid036</t>
+  </si>
+  <si>
+    <t>adfind-pid037</t>
+  </si>
+  <si>
+    <t>adfind-pid038</t>
+  </si>
+  <si>
+    <t>adfind-pid039</t>
+  </si>
+  <si>
+    <t>adfind-pid040</t>
+  </si>
+  <si>
+    <t>adfind-pid041</t>
+  </si>
+  <si>
+    <t>adfind-pid042</t>
+  </si>
+  <si>
+    <t>adfind-pid043</t>
+  </si>
+  <si>
+    <t>adfind-pid044</t>
+  </si>
+  <si>
+    <t>dsquery-pid001</t>
+  </si>
+  <si>
+    <t>impacket-pid001</t>
+  </si>
+  <si>
+    <t>impacket-pid002</t>
+  </si>
+  <si>
+    <t>impacket-pid003</t>
+  </si>
+  <si>
+    <t>impacket-pid004</t>
+  </si>
+  <si>
+    <t>kekeo-pid001</t>
+  </si>
+  <si>
+    <t>kekeo-pid002</t>
+  </si>
+  <si>
+    <t>kekeo-pid003</t>
+  </si>
+  <si>
+    <t>kekeo-pid004</t>
+  </si>
+  <si>
+    <t>kekeo-pid005</t>
+  </si>
+  <si>
+    <t>kekeo-pid006</t>
+  </si>
+  <si>
+    <t>mimikatz-pid001</t>
+  </si>
+  <si>
+    <t>mimikatz-pid002</t>
+  </si>
+  <si>
+    <t>mimikatz-pid003</t>
+  </si>
+  <si>
+    <t>mimikatz-pid004</t>
+  </si>
+  <si>
+    <t>mimikatz-pid005</t>
+  </si>
+  <si>
+    <t>mimikatz-pid006</t>
+  </si>
+  <si>
+    <t>mimikatz-pid007</t>
+  </si>
+  <si>
+    <t>mimikatz-pid008</t>
+  </si>
+  <si>
+    <t>mimikatz-pid009</t>
+  </si>
+  <si>
+    <t>mimikatz-pid010</t>
+  </si>
+  <si>
+    <t>mimikatz-pid011</t>
+  </si>
+  <si>
+    <t>mimikatz-pid012</t>
+  </si>
+  <si>
+    <t>mimikatz-pid013</t>
+  </si>
+  <si>
+    <t>mimikatz-pid014</t>
+  </si>
+  <si>
+    <t>mimikatz-pid015</t>
+  </si>
+  <si>
+    <t>mimikatz-pid016</t>
+  </si>
+  <si>
+    <t>mimikatz-pid017</t>
+  </si>
+  <si>
+    <t>mimikatz-pid018</t>
+  </si>
+  <si>
+    <t>mimikatz-pid019</t>
+  </si>
+  <si>
+    <t>mimikatz-pid020</t>
+  </si>
+  <si>
+    <t>mimikatz-pid021</t>
+  </si>
+  <si>
+    <t>mimikatz-pid022</t>
+  </si>
+  <si>
+    <t>netscan-pid001</t>
+  </si>
+  <si>
+    <t>netscan-pid002</t>
+  </si>
+  <si>
+    <t>netscan-pid003</t>
+  </si>
+  <si>
+    <t>ngrok-pid001</t>
+  </si>
+  <si>
+    <t>ngrok-pid002</t>
+  </si>
+  <si>
+    <t>ngrok-pid003</t>
+  </si>
+  <si>
+    <t>ngrok-pid004</t>
+  </si>
+  <si>
+    <t>ngrok-pid005</t>
+  </si>
+  <si>
+    <t>ngrok-pid006</t>
+  </si>
+  <si>
+    <t>ngrok-pid007</t>
+  </si>
+  <si>
+    <t>ngrok-pid008</t>
+  </si>
+  <si>
+    <t>procdump-pid001</t>
+  </si>
+  <si>
+    <t>procdump-pid002</t>
+  </si>
+  <si>
+    <t>procdump-pid003</t>
+  </si>
+  <si>
+    <t>procdump-pid004</t>
+  </si>
+  <si>
+    <t>procdump-pid005</t>
+  </si>
+  <si>
+    <t>procdump-pid006</t>
+  </si>
+  <si>
+    <t>procdump-pid007</t>
+  </si>
+  <si>
+    <t>psexec-pid001</t>
+  </si>
+  <si>
+    <t>psexec-pid002</t>
+  </si>
+  <si>
+    <t>psexec-pid003</t>
+  </si>
+  <si>
+    <t>psexec-pid004</t>
+  </si>
+  <si>
+    <t>psexec-pid005</t>
+  </si>
+  <si>
+    <t>psexec-pid006</t>
+  </si>
+  <si>
+    <t>psexec-pid007</t>
+  </si>
+  <si>
+    <t>psexec-pid008</t>
+  </si>
+  <si>
+    <t>psexec-pid009</t>
+  </si>
+  <si>
+    <t>psexec-pid010</t>
+  </si>
+  <si>
+    <t>psexec-pid011</t>
+  </si>
+  <si>
+    <t>psexec-pid012</t>
+  </si>
+  <si>
+    <t>psexec-pid013</t>
+  </si>
+  <si>
+    <t>psexec-pid014</t>
+  </si>
+  <si>
+    <t>pypykatz-pid001</t>
+  </si>
+  <si>
+    <t>pypykatz-pid002</t>
+  </si>
+  <si>
+    <t>pypykatz-pid003</t>
+  </si>
+  <si>
+    <t>pypykatz-pid004</t>
+  </si>
+  <si>
+    <t>rclone-pid001</t>
+  </si>
+  <si>
+    <t>rclone-pid002</t>
+  </si>
+  <si>
+    <t>rclone-pid003</t>
+  </si>
+  <si>
+    <t>rclone-pid004</t>
+  </si>
+  <si>
+    <t>rclone-pid005</t>
+  </si>
+  <si>
+    <t>rclone-pid006</t>
+  </si>
+  <si>
+    <t>rclone-pid007</t>
+  </si>
+  <si>
+    <t>rclone-pid008</t>
+  </si>
+  <si>
+    <t>rubeus-pid001</t>
+  </si>
+  <si>
+    <t>rubeus-pid002</t>
+  </si>
+  <si>
+    <t>rubeus-pid003</t>
+  </si>
+  <si>
+    <t>rubeus-pid004</t>
+  </si>
+  <si>
+    <t>rubeus-pid005</t>
   </si>
 </sst>
 </file>
@@ -1652,8 +1652,8 @@
   <dimension ref="A1:H127"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F124" sqref="F124:F127"/>
+      <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A123" sqref="A123:A127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1696,2449 +1696,2449 @@
     </row>
     <row r="2" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>108</v>
+        <v>274</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F2" t="s">
         <v>5</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>109</v>
+        <v>275</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F3" t="s">
         <v>5</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>110</v>
+        <v>276</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F4" t="s">
         <v>5</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>111</v>
+        <v>277</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F5" t="s">
         <v>5</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>112</v>
+        <v>278</v>
       </c>
       <c r="B6" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F6" t="s">
         <v>5</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>113</v>
+        <v>279</v>
       </c>
       <c r="B7" t="s">
         <v>8</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F7" t="s">
         <v>5</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>114</v>
+        <v>280</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F8" t="s">
         <v>5</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>115</v>
+        <v>281</v>
       </c>
       <c r="B9" t="s">
         <v>8</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F9" t="s">
         <v>5</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>116</v>
+        <v>282</v>
       </c>
       <c r="B10" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F10" t="s">
         <v>5</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>117</v>
+        <v>283</v>
       </c>
       <c r="B11" t="s">
         <v>8</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="F11" t="s">
         <v>5</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>118</v>
+        <v>284</v>
       </c>
       <c r="B12" t="s">
         <v>8</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F12" t="s">
         <v>5</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>119</v>
+        <v>285</v>
       </c>
       <c r="B13" t="s">
         <v>8</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F13" t="s">
         <v>5</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>120</v>
+        <v>286</v>
       </c>
       <c r="B14" t="s">
         <v>8</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F14" t="s">
         <v>5</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>121</v>
+        <v>287</v>
       </c>
       <c r="B15" t="s">
         <v>8</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F15" t="s">
         <v>5</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>122</v>
+        <v>288</v>
       </c>
       <c r="B16" t="s">
         <v>8</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F16" t="s">
         <v>5</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>123</v>
+        <v>289</v>
       </c>
       <c r="B17" t="s">
         <v>8</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F17" t="s">
         <v>5</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>124</v>
+        <v>290</v>
       </c>
       <c r="B18" t="s">
         <v>8</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F18" t="s">
         <v>5</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>125</v>
+        <v>291</v>
       </c>
       <c r="B19" t="s">
         <v>8</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F19" t="s">
         <v>5</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>126</v>
+        <v>292</v>
       </c>
       <c r="B20" t="s">
         <v>8</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F20" t="s">
         <v>5</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>127</v>
+        <v>293</v>
       </c>
       <c r="B21" t="s">
         <v>8</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F21" t="s">
         <v>5</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>128</v>
+        <v>294</v>
       </c>
       <c r="B22" t="s">
         <v>8</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F22" t="s">
         <v>5</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>129</v>
+        <v>295</v>
       </c>
       <c r="B23" t="s">
         <v>8</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F23" t="s">
         <v>5</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>130</v>
+        <v>296</v>
       </c>
       <c r="B24" t="s">
         <v>8</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F24" t="s">
         <v>5</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>131</v>
+        <v>297</v>
       </c>
       <c r="B25" t="s">
         <v>8</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F25" t="s">
         <v>5</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>132</v>
+        <v>298</v>
       </c>
       <c r="B26" t="s">
         <v>8</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E26" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F26" t="s">
         <v>5</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>133</v>
+        <v>299</v>
       </c>
       <c r="B27" t="s">
         <v>8</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E27" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F27" t="s">
         <v>5</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>134</v>
+        <v>300</v>
       </c>
       <c r="B28" t="s">
         <v>8</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E28" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F28" t="s">
         <v>5</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>135</v>
+        <v>301</v>
       </c>
       <c r="B29" t="s">
         <v>8</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E29" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F29" t="s">
         <v>5</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>136</v>
+        <v>302</v>
       </c>
       <c r="B30" t="s">
         <v>8</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E30" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F30" t="s">
         <v>5</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>137</v>
+        <v>303</v>
       </c>
       <c r="B31" t="s">
         <v>8</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D31" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E31" t="s">
+        <v>68</v>
+      </c>
+      <c r="F31" t="s">
+        <v>5</v>
+      </c>
+      <c r="G31" s="1" t="s">
         <v>70</v>
-      </c>
-      <c r="E31" t="s">
-        <v>71</v>
-      </c>
-      <c r="F31" t="s">
-        <v>5</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>138</v>
+        <v>304</v>
       </c>
       <c r="B32" t="s">
         <v>8</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E32" t="s">
+        <v>68</v>
+      </c>
+      <c r="F32" t="s">
+        <v>5</v>
+      </c>
+      <c r="G32" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="F32" t="s">
-        <v>5</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>139</v>
+        <v>305</v>
       </c>
       <c r="B33" t="s">
         <v>8</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E33" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F33" t="s">
         <v>5</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>140</v>
+        <v>306</v>
       </c>
       <c r="B34" t="s">
         <v>8</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F34" t="s">
         <v>5</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>141</v>
+        <v>307</v>
       </c>
       <c r="B35" t="s">
         <v>8</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F35" t="s">
         <v>5</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>142</v>
+        <v>308</v>
       </c>
       <c r="B36" t="s">
         <v>8</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F36" t="s">
         <v>5</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>143</v>
+        <v>309</v>
       </c>
       <c r="B37" t="s">
         <v>8</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F37" t="s">
         <v>5</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>144</v>
+        <v>310</v>
       </c>
       <c r="B38" t="s">
         <v>8</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F38" t="s">
         <v>5</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>145</v>
+        <v>311</v>
       </c>
       <c r="B39" t="s">
         <v>8</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F39" t="s">
         <v>5</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>146</v>
+        <v>312</v>
       </c>
       <c r="B40" t="s">
         <v>8</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F40" t="s">
         <v>5</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>147</v>
+        <v>313</v>
       </c>
       <c r="B41" t="s">
         <v>8</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D41" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F41" t="s">
+        <v>5</v>
+      </c>
+      <c r="G41" s="1" t="s">
         <v>92</v>
-      </c>
-      <c r="F41" t="s">
-        <v>5</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>148</v>
+        <v>314</v>
       </c>
       <c r="B42" t="s">
         <v>8</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F42" t="s">
         <v>5</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>149</v>
+        <v>315</v>
       </c>
       <c r="B43" t="s">
         <v>8</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F43" t="s">
         <v>5</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>150</v>
+        <v>316</v>
       </c>
       <c r="B44" t="s">
         <v>8</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F44" t="s">
         <v>5</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>151</v>
+        <v>317</v>
       </c>
       <c r="B45" t="s">
         <v>8</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F45" t="s">
         <v>5</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>375</v>
+        <v>318</v>
       </c>
       <c r="B46" t="s">
         <v>8</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>376</v>
+        <v>257</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F46" t="s">
         <v>5</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>377</v>
+        <v>258</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
+        <v>319</v>
+      </c>
+      <c r="B47" t="s">
+        <v>8</v>
+      </c>
+      <c r="C47" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B47" t="s">
-        <v>8</v>
-      </c>
-      <c r="C47" s="1" t="s">
+      <c r="D47" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E47" t="s">
+        <v>105</v>
+      </c>
+      <c r="F47" t="s">
+        <v>5</v>
+      </c>
+      <c r="G47" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="E47" t="s">
-        <v>152</v>
-      </c>
-      <c r="F47" t="s">
-        <v>5</v>
-      </c>
-      <c r="G47" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>14</v>
+        <v>320</v>
       </c>
       <c r="B48" t="s">
         <v>8</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>153</v>
+        <v>106</v>
       </c>
       <c r="E48" t="s">
-        <v>152</v>
+        <v>105</v>
       </c>
       <c r="F48" t="s">
         <v>5</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>18</v>
+        <v>321</v>
       </c>
       <c r="B49" t="s">
         <v>8</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>153</v>
+        <v>106</v>
       </c>
       <c r="E49" t="s">
-        <v>152</v>
+        <v>105</v>
       </c>
       <c r="F49" t="s">
         <v>5</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>247</v>
+        <v>322</v>
       </c>
       <c r="B50" t="s">
         <v>8</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>249</v>
+        <v>171</v>
       </c>
       <c r="D50" s="1"/>
       <c r="F50" t="s">
         <v>5</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>248</v>
+        <v>170</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>354</v>
+        <v>323</v>
       </c>
       <c r="B51" t="s">
         <v>8</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>348</v>
+        <v>241</v>
       </c>
       <c r="D51" s="1"/>
       <c r="F51" t="s">
         <v>5</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>342</v>
+        <v>235</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>355</v>
+        <v>324</v>
       </c>
       <c r="B52" t="s">
         <v>8</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>349</v>
+        <v>242</v>
       </c>
       <c r="D52" s="1"/>
       <c r="F52" t="s">
         <v>5</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>343</v>
+        <v>236</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>356</v>
+        <v>325</v>
       </c>
       <c r="B53" t="s">
         <v>8</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>350</v>
+        <v>243</v>
       </c>
       <c r="D53" s="1"/>
       <c r="F53" t="s">
         <v>5</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>344</v>
+        <v>237</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>357</v>
+        <v>326</v>
       </c>
       <c r="B54" t="s">
         <v>8</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>351</v>
+        <v>244</v>
       </c>
       <c r="D54" s="1"/>
       <c r="F54" t="s">
         <v>5</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>345</v>
+        <v>238</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>358</v>
+        <v>327</v>
       </c>
       <c r="B55" t="s">
         <v>8</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>352</v>
+        <v>245</v>
       </c>
       <c r="D55" s="1"/>
       <c r="F55" t="s">
         <v>5</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>346</v>
+        <v>239</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>359</v>
+        <v>328</v>
       </c>
       <c r="B56" t="s">
         <v>8</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>353</v>
+        <v>246</v>
       </c>
       <c r="D56" s="1"/>
       <c r="F56" t="s">
         <v>5</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>347</v>
+        <v>240</v>
       </c>
     </row>
     <row r="57" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>154</v>
+        <v>329</v>
       </c>
       <c r="B57" t="s">
         <v>8</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>155</v>
+        <v>107</v>
       </c>
       <c r="D57" s="1"/>
       <c r="F57" t="s">
         <v>5</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>156</v>
+        <v>108</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>167</v>
+        <v>330</v>
       </c>
       <c r="B58" t="s">
         <v>8</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>162</v>
+        <v>114</v>
       </c>
       <c r="D58" s="1"/>
       <c r="F58" t="s">
         <v>5</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>157</v>
+        <v>109</v>
       </c>
     </row>
     <row r="59" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>168</v>
+        <v>331</v>
       </c>
       <c r="B59" t="s">
         <v>8</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>163</v>
+        <v>115</v>
       </c>
       <c r="D59" s="1"/>
       <c r="F59" t="s">
         <v>5</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>158</v>
+        <v>110</v>
       </c>
     </row>
     <row r="60" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>169</v>
+        <v>332</v>
       </c>
       <c r="B60" t="s">
         <v>8</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>164</v>
+        <v>116</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>244</v>
+        <v>167</v>
       </c>
       <c r="E60" t="s">
-        <v>245</v>
+        <v>168</v>
       </c>
       <c r="F60" t="s">
         <v>5</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>159</v>
+        <v>111</v>
       </c>
     </row>
     <row r="61" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>170</v>
+        <v>333</v>
       </c>
       <c r="B61" t="s">
         <v>8</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>165</v>
+        <v>117</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>243</v>
+        <v>166</v>
       </c>
       <c r="F61" t="s">
         <v>5</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>160</v>
+        <v>112</v>
       </c>
     </row>
     <row r="62" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>171</v>
+        <v>334</v>
       </c>
       <c r="B62" t="s">
         <v>8</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>166</v>
+        <v>118</v>
       </c>
       <c r="D62" s="1"/>
       <c r="F62" t="s">
         <v>5</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>161</v>
+        <v>113</v>
       </c>
     </row>
     <row r="63" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>185</v>
+        <v>335</v>
       </c>
       <c r="B63" t="s">
         <v>8</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>173</v>
+        <v>120</v>
       </c>
       <c r="D63" s="1"/>
       <c r="F63" t="s">
         <v>5</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>172</v>
+        <v>119</v>
       </c>
     </row>
     <row r="64" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>186</v>
+        <v>336</v>
       </c>
       <c r="B64" t="s">
         <v>8</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>174</v>
+        <v>121</v>
       </c>
       <c r="D64" s="1"/>
       <c r="F64" t="s">
         <v>5</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>175</v>
+        <v>122</v>
       </c>
     </row>
     <row r="65" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>187</v>
+        <v>337</v>
       </c>
       <c r="B65" t="s">
         <v>8</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>177</v>
+        <v>124</v>
       </c>
       <c r="D65" s="1"/>
       <c r="F65" t="s">
         <v>5</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>176</v>
+        <v>123</v>
       </c>
     </row>
     <row r="66" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>188</v>
+        <v>338</v>
       </c>
       <c r="B66" t="s">
         <v>8</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>177</v>
+        <v>124</v>
       </c>
       <c r="D66" s="1"/>
       <c r="F66" t="s">
         <v>5</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>178</v>
+        <v>125</v>
       </c>
     </row>
     <row r="67" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>189</v>
+        <v>339</v>
       </c>
       <c r="B67" t="s">
         <v>8</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>181</v>
+        <v>128</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>243</v>
+        <v>166</v>
       </c>
       <c r="E67" t="s">
-        <v>246</v>
+        <v>169</v>
       </c>
       <c r="F67" t="s">
         <v>5</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>179</v>
+        <v>126</v>
       </c>
     </row>
     <row r="68" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>190</v>
+        <v>340</v>
       </c>
       <c r="B68" t="s">
         <v>8</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>182</v>
+        <v>129</v>
       </c>
       <c r="D68" s="1"/>
       <c r="F68" t="s">
         <v>5</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>180</v>
+        <v>127</v>
       </c>
     </row>
     <row r="69" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>191</v>
+        <v>341</v>
       </c>
       <c r="B69" t="s">
         <v>8</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>184</v>
+        <v>131</v>
       </c>
       <c r="D69" s="1"/>
       <c r="F69" t="s">
         <v>5</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>183</v>
+        <v>130</v>
       </c>
     </row>
     <row r="70" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>194</v>
+        <v>342</v>
       </c>
       <c r="B70" t="s">
         <v>8</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>196</v>
+        <v>134</v>
       </c>
       <c r="D70" s="1"/>
       <c r="F70" t="s">
         <v>5</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>192</v>
+        <v>132</v>
       </c>
     </row>
     <row r="71" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>195</v>
+        <v>343</v>
       </c>
       <c r="B71" t="s">
         <v>8</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>197</v>
+        <v>135</v>
       </c>
       <c r="D71" s="1"/>
       <c r="F71" t="s">
         <v>5</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>193</v>
+        <v>133</v>
       </c>
     </row>
     <row r="72" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>200</v>
+        <v>344</v>
       </c>
       <c r="B72" t="s">
         <v>8</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>199</v>
+        <v>137</v>
       </c>
       <c r="D72" s="1"/>
       <c r="F72" t="s">
         <v>5</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>198</v>
+        <v>136</v>
       </c>
     </row>
     <row r="73" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>201</v>
+        <v>345</v>
       </c>
       <c r="B73" t="s">
         <v>8</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>202</v>
+        <v>138</v>
       </c>
       <c r="D73" s="1"/>
       <c r="F73" t="s">
         <v>5</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>203</v>
+        <v>139</v>
       </c>
     </row>
     <row r="74" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>204</v>
+        <v>346</v>
       </c>
       <c r="B74" t="s">
-        <v>257</v>
+        <v>179</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>205</v>
+        <v>140</v>
       </c>
       <c r="D74" s="1"/>
       <c r="F74" t="s">
         <v>5</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>206</v>
+        <v>141</v>
       </c>
     </row>
     <row r="75" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>207</v>
+        <v>347</v>
       </c>
       <c r="B75" t="s">
-        <v>257</v>
+        <v>179</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>211</v>
+        <v>144</v>
       </c>
       <c r="D75" s="1"/>
       <c r="F75" t="s">
         <v>5</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>208</v>
+        <v>142</v>
       </c>
     </row>
     <row r="76" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>210</v>
+        <v>348</v>
       </c>
       <c r="B76" t="s">
-        <v>257</v>
+        <v>179</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>212</v>
+        <v>145</v>
       </c>
       <c r="D76" s="1"/>
       <c r="F76" t="s">
         <v>5</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>209</v>
+        <v>143</v>
       </c>
     </row>
     <row r="77" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>215</v>
+        <v>349</v>
       </c>
       <c r="B77" t="s">
-        <v>257</v>
+        <v>179</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>217</v>
+        <v>148</v>
       </c>
       <c r="D77" s="1"/>
       <c r="F77" t="s">
         <v>5</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>213</v>
+        <v>146</v>
       </c>
     </row>
     <row r="78" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>216</v>
+        <v>350</v>
       </c>
       <c r="B78" t="s">
-        <v>257</v>
+        <v>179</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>218</v>
+        <v>149</v>
       </c>
       <c r="D78" s="1"/>
       <c r="F78" t="s">
         <v>5</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>214</v>
+        <v>147</v>
       </c>
     </row>
     <row r="79" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>378</v>
+        <v>351</v>
       </c>
       <c r="B79" t="s">
         <v>8</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>380</v>
+        <v>260</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>387</v>
+        <v>265</v>
       </c>
       <c r="F79" t="s">
         <v>5</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>379</v>
+        <v>259</v>
       </c>
     </row>
     <row r="80" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>385</v>
+        <v>352</v>
       </c>
       <c r="B80" t="s">
         <v>8</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>383</v>
+        <v>263</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>387</v>
+        <v>265</v>
       </c>
       <c r="F80" t="s">
         <v>5</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>381</v>
+        <v>261</v>
       </c>
     </row>
     <row r="81" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>386</v>
+        <v>353</v>
       </c>
       <c r="B81" t="s">
         <v>8</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>384</v>
+        <v>264</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>387</v>
+        <v>265</v>
       </c>
       <c r="F81" t="s">
         <v>5</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>382</v>
+        <v>262</v>
       </c>
     </row>
     <row r="82" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>219</v>
+        <v>354</v>
       </c>
       <c r="B82" t="s">
-        <v>256</v>
+        <v>178</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>220</v>
+        <v>150</v>
       </c>
       <c r="D82" s="1"/>
       <c r="F82" t="s">
         <v>5</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>221</v>
+        <v>151</v>
       </c>
     </row>
     <row r="83" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>223</v>
+        <v>355</v>
       </c>
       <c r="B83" t="s">
-        <v>256</v>
+        <v>178</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>224</v>
+        <v>153</v>
       </c>
       <c r="D83" s="1"/>
       <c r="F83" t="s">
         <v>5</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>222</v>
+        <v>152</v>
       </c>
     </row>
     <row r="84" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>227</v>
+        <v>356</v>
       </c>
       <c r="B84" t="s">
-        <v>256</v>
+        <v>178</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>229</v>
+        <v>156</v>
       </c>
       <c r="D84" s="1"/>
       <c r="F84" t="s">
         <v>5</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>225</v>
+        <v>154</v>
       </c>
     </row>
     <row r="85" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>228</v>
+        <v>357</v>
       </c>
       <c r="B85" t="s">
-        <v>256</v>
+        <v>178</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>230</v>
+        <v>157</v>
       </c>
       <c r="D85" s="1"/>
       <c r="F85" t="s">
         <v>5</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>226</v>
+        <v>155</v>
       </c>
     </row>
     <row r="86" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>231</v>
+        <v>358</v>
       </c>
       <c r="B86" t="s">
-        <v>256</v>
+        <v>178</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>232</v>
+        <v>158</v>
       </c>
       <c r="D86" s="1"/>
       <c r="F86" t="s">
         <v>5</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>233</v>
+        <v>159</v>
       </c>
     </row>
     <row r="87" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>234</v>
+        <v>359</v>
       </c>
       <c r="B87" t="s">
-        <v>256</v>
+        <v>178</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>235</v>
+        <v>160</v>
       </c>
       <c r="D87" s="1"/>
       <c r="F87" t="s">
         <v>5</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>238</v>
+        <v>162</v>
       </c>
     </row>
     <row r="88" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>236</v>
+        <v>360</v>
       </c>
       <c r="B88" t="s">
-        <v>256</v>
+        <v>178</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>237</v>
+        <v>161</v>
       </c>
       <c r="D88" s="1"/>
       <c r="F88" t="s">
         <v>5</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>239</v>
+        <v>163</v>
       </c>
     </row>
     <row r="89" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>240</v>
+        <v>361</v>
       </c>
       <c r="B89" t="s">
-        <v>256</v>
+        <v>178</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>241</v>
+        <v>164</v>
       </c>
       <c r="D89" s="1"/>
       <c r="F89" t="s">
         <v>5</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>242</v>
+        <v>165</v>
       </c>
     </row>
     <row r="90" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>270</v>
+        <v>362</v>
       </c>
       <c r="B90" t="s">
         <v>8</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>250</v>
+        <v>172</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>243</v>
+        <v>166</v>
       </c>
       <c r="E90" t="s">
-        <v>246</v>
+        <v>169</v>
       </c>
       <c r="F90" t="s">
         <v>5</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>264</v>
+        <v>186</v>
       </c>
     </row>
     <row r="91" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>271</v>
+        <v>363</v>
       </c>
       <c r="B91" t="s">
         <v>8</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>251</v>
+        <v>173</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>243</v>
+        <v>166</v>
       </c>
       <c r="F91" t="s">
         <v>5</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>263</v>
+        <v>185</v>
       </c>
     </row>
     <row r="92" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>272</v>
+        <v>364</v>
       </c>
       <c r="B92" t="s">
         <v>8</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>252</v>
+        <v>174</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>243</v>
+        <v>166</v>
       </c>
       <c r="E92" t="s">
-        <v>246</v>
+        <v>169</v>
       </c>
       <c r="F92" t="s">
         <v>5</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>262</v>
+        <v>184</v>
       </c>
     </row>
     <row r="93" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>273</v>
+        <v>365</v>
       </c>
       <c r="B93" t="s">
         <v>8</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>253</v>
+        <v>175</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>243</v>
+        <v>166</v>
       </c>
       <c r="F93" t="s">
         <v>5</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>261</v>
+        <v>183</v>
       </c>
     </row>
     <row r="94" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>274</v>
+        <v>366</v>
       </c>
       <c r="B94" t="s">
         <v>8</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>254</v>
+        <v>176</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>243</v>
+        <v>166</v>
       </c>
       <c r="F94" t="s">
         <v>5</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>255</v>
+        <v>177</v>
       </c>
     </row>
     <row r="95" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>275</v>
+        <v>367</v>
       </c>
       <c r="B95" t="s">
         <v>8</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>268</v>
+        <v>190</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>267</v>
+        <v>189</v>
       </c>
       <c r="F95" t="s">
         <v>5</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>260</v>
+        <v>182</v>
       </c>
     </row>
     <row r="96" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>276</v>
+        <v>368</v>
       </c>
       <c r="B96" t="s">
         <v>8</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>266</v>
+        <v>188</v>
       </c>
       <c r="D96" s="1"/>
       <c r="F96" t="s">
         <v>5</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>265</v>
+        <v>187</v>
       </c>
     </row>
     <row r="97" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>269</v>
+        <v>369</v>
       </c>
       <c r="B97" t="s">
         <v>8</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>259</v>
+        <v>181</v>
       </c>
       <c r="D97" s="1"/>
       <c r="F97" t="s">
         <v>5</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>258</v>
+        <v>180</v>
       </c>
     </row>
     <row r="98" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>277</v>
+        <v>370</v>
       </c>
       <c r="B98" t="s">
         <v>8</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>280</v>
+        <v>193</v>
       </c>
       <c r="D98" s="1"/>
       <c r="F98" t="s">
         <v>5</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>279</v>
+        <v>192</v>
       </c>
     </row>
     <row r="99" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>290</v>
+        <v>371</v>
       </c>
       <c r="B99" t="s">
         <v>8</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>278</v>
+        <v>191</v>
       </c>
       <c r="D99" s="1"/>
       <c r="F99" t="s">
         <v>5</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>283</v>
+        <v>196</v>
       </c>
     </row>
     <row r="100" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>291</v>
+        <v>372</v>
       </c>
       <c r="B100" t="s">
         <v>8</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>281</v>
+        <v>194</v>
       </c>
       <c r="D100" s="1"/>
       <c r="F100" t="s">
         <v>5</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>282</v>
+        <v>195</v>
       </c>
     </row>
     <row r="101" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>292</v>
+        <v>373</v>
       </c>
       <c r="B101" t="s">
         <v>8</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>284</v>
+        <v>197</v>
       </c>
       <c r="D101" s="1"/>
       <c r="F101" t="s">
         <v>5</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>285</v>
+        <v>198</v>
       </c>
     </row>
     <row r="102" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>293</v>
+        <v>374</v>
       </c>
       <c r="B102" t="s">
         <v>8</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>286</v>
+        <v>199</v>
       </c>
       <c r="D102" s="1"/>
       <c r="F102" t="s">
         <v>5</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>287</v>
+        <v>200</v>
       </c>
     </row>
     <row r="103" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>294</v>
+        <v>375</v>
       </c>
       <c r="B103" t="s">
         <v>8</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>296</v>
+        <v>203</v>
       </c>
       <c r="D103" s="1"/>
       <c r="F103" t="s">
         <v>5</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>289</v>
+        <v>202</v>
       </c>
     </row>
     <row r="104" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>295</v>
+        <v>376</v>
       </c>
       <c r="B104" t="s">
         <v>8</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>297</v>
+        <v>204</v>
       </c>
       <c r="D104" s="1"/>
       <c r="F104" t="s">
         <v>5</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>298</v>
+        <v>205</v>
       </c>
     </row>
     <row r="105" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>303</v>
+        <v>377</v>
       </c>
       <c r="B105" t="s">
         <v>8</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>299</v>
+        <v>206</v>
       </c>
       <c r="D105" s="1"/>
       <c r="F105" t="s">
         <v>5</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>301</v>
+        <v>208</v>
       </c>
     </row>
     <row r="106" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>304</v>
+        <v>378</v>
       </c>
       <c r="B106" t="s">
         <v>8</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>300</v>
+        <v>207</v>
       </c>
       <c r="D106" s="1"/>
       <c r="F106" t="s">
         <v>5</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>302</v>
+        <v>209</v>
       </c>
     </row>
     <row r="107" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>307</v>
+        <v>379</v>
       </c>
       <c r="B107" t="s">
         <v>8</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>306</v>
+        <v>211</v>
       </c>
       <c r="D107" s="1"/>
       <c r="F107" t="s">
         <v>5</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>305</v>
+        <v>210</v>
       </c>
     </row>
     <row r="108" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>310</v>
+        <v>380</v>
       </c>
       <c r="B108" t="s">
         <v>8</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>309</v>
+        <v>213</v>
       </c>
       <c r="D108" s="1"/>
       <c r="F108" t="s">
         <v>5</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>308</v>
+        <v>212</v>
       </c>
       <c r="H108" s="1" t="s">
-        <v>288</v>
+        <v>201</v>
       </c>
     </row>
     <row r="109" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>313</v>
+        <v>381</v>
       </c>
       <c r="B109" t="s">
         <v>8</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>312</v>
+        <v>215</v>
       </c>
       <c r="D109" s="1"/>
       <c r="F109" t="s">
         <v>5</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>311</v>
+        <v>214</v>
       </c>
     </row>
     <row r="110" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>317</v>
+        <v>382</v>
       </c>
       <c r="B110" t="s">
         <v>8</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>314</v>
+        <v>216</v>
       </c>
       <c r="D110" s="1"/>
       <c r="F110" t="s">
         <v>5</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>315</v>
+        <v>217</v>
       </c>
       <c r="H110" s="1" t="s">
-        <v>316</v>
+        <v>218</v>
       </c>
     </row>
     <row r="111" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="B111" t="s">
         <v>8</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>389</v>
+        <v>266</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>243</v>
+        <v>166</v>
       </c>
       <c r="F111" t="s">
         <v>5</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>390</v>
+        <v>267</v>
       </c>
     </row>
     <row r="112" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>397</v>
+        <v>384</v>
       </c>
       <c r="B112" t="s">
         <v>8</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>391</v>
+        <v>268</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>243</v>
+        <v>166</v>
       </c>
       <c r="F112" t="s">
         <v>5</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>394</v>
+        <v>271</v>
       </c>
     </row>
     <row r="113" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>398</v>
+        <v>385</v>
       </c>
       <c r="B113" t="s">
         <v>8</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>392</v>
+        <v>269</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>243</v>
+        <v>166</v>
       </c>
       <c r="F113" t="s">
         <v>5</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>395</v>
+        <v>272</v>
       </c>
     </row>
     <row r="114" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="B114" t="s">
         <v>8</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>393</v>
+        <v>270</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>243</v>
+        <v>166</v>
       </c>
       <c r="F114" t="s">
         <v>5</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>396</v>
+        <v>273</v>
       </c>
     </row>
     <row r="115" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>318</v>
+        <v>387</v>
       </c>
       <c r="B115" t="s">
-        <v>257</v>
+        <v>179</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>319</v>
+        <v>219</v>
       </c>
       <c r="D115" s="1"/>
       <c r="F115" t="s">
         <v>5</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>320</v>
+        <v>220</v>
       </c>
     </row>
     <row r="116" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>323</v>
+        <v>388</v>
       </c>
       <c r="B116" t="s">
-        <v>256</v>
+        <v>178</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>321</v>
+        <v>221</v>
       </c>
       <c r="D116" s="1"/>
       <c r="F116" t="s">
         <v>5</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>322</v>
+        <v>222</v>
       </c>
     </row>
     <row r="117" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>330</v>
+        <v>389</v>
       </c>
       <c r="B117" t="s">
-        <v>256</v>
+        <v>178</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>324</v>
+        <v>223</v>
       </c>
       <c r="D117" s="1"/>
       <c r="F117" t="s">
         <v>5</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>326</v>
+        <v>225</v>
       </c>
     </row>
     <row r="118" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>331</v>
+        <v>390</v>
       </c>
       <c r="B118" t="s">
-        <v>256</v>
+        <v>178</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>325</v>
+        <v>224</v>
       </c>
       <c r="D118" s="1"/>
       <c r="F118" t="s">
         <v>5</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>327</v>
+        <v>226</v>
       </c>
     </row>
     <row r="119" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>332</v>
+        <v>391</v>
       </c>
       <c r="B119" t="s">
-        <v>256</v>
+        <v>178</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>328</v>
+        <v>227</v>
       </c>
       <c r="D119" s="1"/>
       <c r="F119" t="s">
         <v>5</v>
       </c>
       <c r="G119" s="1" t="s">
-        <v>329</v>
+        <v>228</v>
       </c>
     </row>
     <row r="120" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>337</v>
+        <v>392</v>
       </c>
       <c r="B120" t="s">
-        <v>256</v>
+        <v>178</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>336</v>
+        <v>232</v>
       </c>
       <c r="D120" s="1"/>
       <c r="F120" t="s">
         <v>5</v>
       </c>
       <c r="G120" s="1" t="s">
-        <v>333</v>
+        <v>229</v>
       </c>
     </row>
     <row r="121" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>338</v>
+        <v>393</v>
       </c>
       <c r="B121" t="s">
-        <v>256</v>
+        <v>178</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>335</v>
+        <v>231</v>
       </c>
       <c r="D121" s="1"/>
       <c r="F121" t="s">
         <v>5</v>
       </c>
       <c r="G121" s="1" t="s">
-        <v>334</v>
+        <v>230</v>
       </c>
     </row>
     <row r="122" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>341</v>
+        <v>394</v>
       </c>
       <c r="B122" t="s">
-        <v>256</v>
+        <v>178</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>340</v>
+        <v>234</v>
       </c>
       <c r="D122" s="1"/>
       <c r="F122" t="s">
         <v>5</v>
       </c>
       <c r="G122" s="1" t="s">
-        <v>339</v>
+        <v>233</v>
       </c>
     </row>
     <row r="123" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>366</v>
+        <v>395</v>
       </c>
       <c r="B123" t="s">
         <v>8</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>360</v>
+        <v>247</v>
       </c>
       <c r="D123" s="1"/>
       <c r="F123" t="s">
         <v>5</v>
       </c>
       <c r="G123" s="1" t="s">
-        <v>362</v>
+        <v>249</v>
       </c>
     </row>
     <row r="124" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>367</v>
+        <v>396</v>
       </c>
       <c r="B124" t="s">
         <v>8</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>361</v>
+        <v>248</v>
       </c>
       <c r="D124" s="1"/>
       <c r="F124" t="s">
         <v>5</v>
       </c>
       <c r="G124" s="1" t="s">
-        <v>363</v>
+        <v>250</v>
       </c>
     </row>
     <row r="125" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>368</v>
+        <v>397</v>
       </c>
       <c r="B125" t="s">
         <v>8</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>365</v>
+        <v>252</v>
       </c>
       <c r="D125" s="1"/>
       <c r="F125" t="s">
         <v>5</v>
       </c>
       <c r="G125" s="1" t="s">
-        <v>364</v>
+        <v>251</v>
       </c>
     </row>
     <row r="126" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>369</v>
+        <v>398</v>
       </c>
       <c r="B126" t="s">
         <v>8</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>371</v>
+        <v>254</v>
       </c>
       <c r="D126" s="1"/>
       <c r="F126" t="s">
         <v>5</v>
       </c>
       <c r="G126" s="1" t="s">
-        <v>370</v>
+        <v>253</v>
       </c>
     </row>
     <row r="127" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>373</v>
+        <v>399</v>
       </c>
       <c r="B127" t="s">
         <v>8</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>374</v>
+        <v>256</v>
       </c>
       <c r="D127" s="1"/>
       <c r="F127" t="s">
         <v>5</v>
       </c>
       <c r="G127" s="1" t="s">
-        <v>372</v>
+        <v>255</v>
       </c>
     </row>
   </sheetData>
